--- a/Production Monitoring Dashboard.xlsx
+++ b/Production Monitoring Dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dwi\BELAJAR EXCEL\Tondi Factory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dwi\BELAJAR EXCEL\Tondi Factory\Scarf-Production-Dashboard-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FB43A9-F5C6-4834-8C37-F550C7ED5420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152A9225-FE4F-4FD7-A6C4-4938D7A3B290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9709CC96-8BCD-447D-A5C8-E8188A5D328F}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -423,8 +423,8 @@
     <numFmt numFmtId="165" formatCode="[h]:mm;@"/>
     <numFmt numFmtId="166" formatCode="[h];@"/>
     <numFmt numFmtId="167" formatCode="[m];@"/>
-    <numFmt numFmtId="172" formatCode="&quot;BRDR&quot;#"/>
-    <numFmt numFmtId="175" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="168" formatCode="&quot;BRDR&quot;#"/>
+    <numFmt numFmtId="169" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -732,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -789,26 +789,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -823,16 +814,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,11 +829,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -856,21 +845,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="67">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[m];@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[m];@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[m];@"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[h]:mm;@"/>
     </dxf>
@@ -1961,6 +1935,21 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[m];@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[m];@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="[m];@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2128,7 +2117,7 @@
                   <c:v>1.1707317073170729</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1772723000281979</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.1844170670218335</c:v>
@@ -2137,7 +2126,7 @@
                   <c:v>1.1941556617027254</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.196789787393814</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.2045646661031275</c:v>
@@ -2220,7 +2209,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.1772723000281979</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -2229,7 +2218,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.196789787393814</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -6274,13 +6263,13 @@
                   <c:v>6.8333333333333357E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.1388888888888899E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8.4999999999999964E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9444444444444438E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.16027777777777774</c:v>
@@ -6366,13 +6355,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1388888888888899E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.9444444444444438E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -10411,13 +10400,13 @@
                   <c:v>9.7328703703703695E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8509259259259269E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.8583333333333342E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.8643518518518533E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.8861111111111122E-2</c:v>
@@ -10503,13 +10492,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.8509259259259269E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.8643518518518533E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -12366,10 +12355,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
@@ -12456,10 +12445,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -13193,13 +13182,13 @@
                   <c:v>0.36498263888888888</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36940972222222224</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.36968750000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.36991319444444448</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.37072916666666672</c:v>
@@ -13285,13 +13274,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.36940972222222224</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36991319444444448</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -34187,19 +34176,19 @@
     <tableColumn id="1" xr3:uid="{0C19AD21-589C-442D-9083-48EC071C9032}" name="Machine"/>
     <tableColumn id="3" xr3:uid="{DABF3350-934A-448A-A8C0-89C86792D8E2}" name="Start"/>
     <tableColumn id="4" xr3:uid="{733F3408-C216-4FBB-9651-F34FD3B16BBC}" name="Stop"/>
-    <tableColumn id="5" xr3:uid="{C4930F15-5430-48B2-8EF4-41F354EACEB8}" name="Downtime" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{C4930F15-5430-48B2-8EF4-41F354EACEB8}" name="Downtime" dataDxfId="66">
       <calculatedColumnFormula array="1">SUM(IF((Table4[[#This Row],[Machine]]=Table5[Machine]),Table5[Downtime]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F4E4A36E-8DDF-4BBA-8078-9C4ADEED807D}" name="Total Running Hour" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{F4E4A36E-8DDF-4BBA-8078-9C4ADEED807D}" name="Total Running Hour" dataDxfId="65">
       <calculatedColumnFormula>'Daily Performance Monitoring '!BF4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F6FBFE44-A5A7-43CC-81A6-F61CE332F26A}" name="Average Running Hour" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{F6FBFE44-A5A7-43CC-81A6-F61CE332F26A}" name="Average Running Hour" dataDxfId="64">
       <calculatedColumnFormula>'Daily Performance Monitoring '!BG4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{93AE26A3-BAE5-44C8-9E56-4247BDE7E58C}" name="Product" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{93AE26A3-BAE5-44C8-9E56-4247BDE7E58C}" name="Product" dataDxfId="63">
       <calculatedColumnFormula>'Daily Performance Monitoring '!BH4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{92369F58-03A9-4237-BACE-31AB89CDA64B}" name="Productivity" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{92369F58-03A9-4237-BACE-31AB89CDA64B}" name="Productivity" dataDxfId="62">
       <calculatedColumnFormula>Table4[[#This Row],[Product]]/Table4[[#This Row],[Total Running Hour]]/1440</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -34208,98 +34197,98 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{080CEE6A-610C-4B39-AECC-BFB8413B62C7}" name="Table3" displayName="Table3" ref="A1:BC20" totalsRowShown="0" headerRowDxfId="66" tableBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{080CEE6A-610C-4B39-AECC-BFB8413B62C7}" name="Table3" displayName="Table3" ref="A1:BC20" totalsRowShown="0" headerRowDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A1:BC20" xr:uid="{080CEE6A-610C-4B39-AECC-BFB8413B62C7}"/>
   <tableColumns count="55">
-    <tableColumn id="1" xr3:uid="{451F5E9C-0C54-453A-9724-F58DB9DD42A3}" name="TanggaK Produksi" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{017D7441-F590-411C-9763-CB56406352D1}" name="Mesin" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{A4DD2F64-4563-4E02-9A77-5C7E61F3C083}" name="CoKumn1" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{E4C17001-A5AA-42ED-A823-6F0B8DB73650}" name="CoKumn2" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{719199A5-D95F-4D8B-99B0-799F0A9F8B02}" name="CoKumn3" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{451F5E9C-0C54-453A-9724-F58DB9DD42A3}" name="TanggaK Produksi" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{017D7441-F590-411C-9763-CB56406352D1}" name="Mesin" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{A4DD2F64-4563-4E02-9A77-5C7E61F3C083}" name="CoKumn1" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{E4C17001-A5AA-42ED-A823-6F0B8DB73650}" name="CoKumn2" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{719199A5-D95F-4D8B-99B0-799F0A9F8B02}" name="CoKumn3" dataDxfId="55">
       <calculatedColumnFormula>C2-B2-D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7B328CB7-2B0E-4C5C-B01F-AB056EB36C2A}" name="CoKumn4" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{9B6D5769-47FB-46BE-B1F1-90CC8AF85211}" name="CoKumn5" dataDxfId="58">
+    <tableColumn id="6" xr3:uid="{7B328CB7-2B0E-4C5C-B01F-AB056EB36C2A}" name="CoKumn4" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{9B6D5769-47FB-46BE-B1F1-90CC8AF85211}" name="CoKumn5" dataDxfId="53">
       <calculatedColumnFormula>F2/E2/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DDC79B13-B6CF-43F8-B68C-9775CCF45249}" name="CoKumn6" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{707A86F2-7042-47A4-9420-0E8782D8AD3E}" name="CoKumn7" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{062064D1-C55E-4B44-9282-7E6E7341EA1F}" name="CoKumn8" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{587E8918-51C6-4A5B-BDD5-C41D373A4AE3}" name="CoKumn9" dataDxfId="54">
+    <tableColumn id="8" xr3:uid="{DDC79B13-B6CF-43F8-B68C-9775CCF45249}" name="CoKumn6" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{707A86F2-7042-47A4-9420-0E8782D8AD3E}" name="CoKumn7" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{062064D1-C55E-4B44-9282-7E6E7341EA1F}" name="CoKumn8" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{587E8918-51C6-4A5B-BDD5-C41D373A4AE3}" name="CoKumn9" dataDxfId="49">
       <calculatedColumnFormula>I2-H2-J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6D476F55-E3A9-4BF6-919C-17017A022672}" name="CoKumn10" dataDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{B8DB021F-8922-4EB4-9302-48F5101B054A}" name="CoKumn11" dataDxfId="52">
+    <tableColumn id="12" xr3:uid="{6D476F55-E3A9-4BF6-919C-17017A022672}" name="CoKumn10" dataDxfId="48"/>
+    <tableColumn id="13" xr3:uid="{B8DB021F-8922-4EB4-9302-48F5101B054A}" name="CoKumn11" dataDxfId="47">
       <calculatedColumnFormula>L2/K2/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{FCAF023B-BE67-4207-AE54-ABCDFF7B5852}" name="CoKumn12" dataDxfId="51"/>
-    <tableColumn id="15" xr3:uid="{D8849E0B-6A71-4CD5-A172-63BC0FBEE6D5}" name="CoKumn13" dataDxfId="50"/>
-    <tableColumn id="16" xr3:uid="{C6EDEAAF-C435-4474-8FFF-438A0BAE6BA0}" name="CoKumn14" dataDxfId="49"/>
-    <tableColumn id="17" xr3:uid="{7D63DC69-37D8-4521-92C9-6E7210F053BA}" name="CoKumn15" dataDxfId="48">
+    <tableColumn id="14" xr3:uid="{FCAF023B-BE67-4207-AE54-ABCDFF7B5852}" name="CoKumn12" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{D8849E0B-6A71-4CD5-A172-63BC0FBEE6D5}" name="CoKumn13" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{C6EDEAAF-C435-4474-8FFF-438A0BAE6BA0}" name="CoKumn14" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{7D63DC69-37D8-4521-92C9-6E7210F053BA}" name="CoKumn15" dataDxfId="43">
       <calculatedColumnFormula>O2-N2-P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{9FF26F89-4645-4D6C-954D-71CED81E00A3}" name="CoKumn16" dataDxfId="47"/>
-    <tableColumn id="19" xr3:uid="{A18870E0-0EB6-40E8-87DE-02D5E70E15FA}" name="CoKumn17" dataDxfId="46">
+    <tableColumn id="18" xr3:uid="{9FF26F89-4645-4D6C-954D-71CED81E00A3}" name="CoKumn16" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{A18870E0-0EB6-40E8-87DE-02D5E70E15FA}" name="CoKumn17" dataDxfId="41">
       <calculatedColumnFormula>R2/Q2/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{CBB091B5-3C95-4720-A758-4262CD28BF1B}" name="CoKumn18" dataDxfId="45"/>
-    <tableColumn id="21" xr3:uid="{BCE43A27-D24D-4BCC-8D0D-447BA6D08587}" name="CoKumn19" dataDxfId="44"/>
-    <tableColumn id="22" xr3:uid="{BE92A4F7-3CE0-4949-AB31-9B96798A5855}" name="CoKumn20" dataDxfId="43"/>
-    <tableColumn id="23" xr3:uid="{3F643CFB-430D-429E-8BBC-407EEE6A3319}" name="CoKumn21" dataDxfId="42">
+    <tableColumn id="20" xr3:uid="{CBB091B5-3C95-4720-A758-4262CD28BF1B}" name="CoKumn18" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{BCE43A27-D24D-4BCC-8D0D-447BA6D08587}" name="CoKumn19" dataDxfId="39"/>
+    <tableColumn id="22" xr3:uid="{BE92A4F7-3CE0-4949-AB31-9B96798A5855}" name="CoKumn20" dataDxfId="38"/>
+    <tableColumn id="23" xr3:uid="{3F643CFB-430D-429E-8BBC-407EEE6A3319}" name="CoKumn21" dataDxfId="37">
       <calculatedColumnFormula>U2-T2-V2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{6EABBD70-3016-403A-A52B-C5DE0EA3ED23}" name="CoKumn22" dataDxfId="41"/>
-    <tableColumn id="25" xr3:uid="{2D1F40DD-DE91-40F0-A17D-B80ABB5F4681}" name="CoKumn23" dataDxfId="40">
+    <tableColumn id="24" xr3:uid="{6EABBD70-3016-403A-A52B-C5DE0EA3ED23}" name="CoKumn22" dataDxfId="36"/>
+    <tableColumn id="25" xr3:uid="{2D1F40DD-DE91-40F0-A17D-B80ABB5F4681}" name="CoKumn23" dataDxfId="35">
       <calculatedColumnFormula>X2/W2/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{98D31166-2575-4C9C-B770-80E6EA2250F9}" name="CoKumn24" dataDxfId="39"/>
-    <tableColumn id="27" xr3:uid="{6763D65E-0703-42A2-A6F4-749BFAD3F357}" name="CoKumn25" dataDxfId="38"/>
-    <tableColumn id="28" xr3:uid="{9A93A757-F2F5-4504-92A4-5F7A18764414}" name="CoKumn26" dataDxfId="37"/>
-    <tableColumn id="29" xr3:uid="{8D20A9FB-D883-421A-973E-5D2CA718D476}" name="CoKumn27" dataDxfId="36">
+    <tableColumn id="26" xr3:uid="{98D31166-2575-4C9C-B770-80E6EA2250F9}" name="CoKumn24" dataDxfId="34"/>
+    <tableColumn id="27" xr3:uid="{6763D65E-0703-42A2-A6F4-749BFAD3F357}" name="CoKumn25" dataDxfId="33"/>
+    <tableColumn id="28" xr3:uid="{9A93A757-F2F5-4504-92A4-5F7A18764414}" name="CoKumn26" dataDxfId="32"/>
+    <tableColumn id="29" xr3:uid="{8D20A9FB-D883-421A-973E-5D2CA718D476}" name="CoKumn27" dataDxfId="31">
       <calculatedColumnFormula>AA2-Z2-AB2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{E8A67C58-6500-4951-959E-41FE8BB1369A}" name="CoKumn28" dataDxfId="35"/>
-    <tableColumn id="31" xr3:uid="{E079F3AD-AA0B-412E-AB01-6AAB56E75F0F}" name="CoKumn29" dataDxfId="34">
+    <tableColumn id="30" xr3:uid="{E8A67C58-6500-4951-959E-41FE8BB1369A}" name="CoKumn28" dataDxfId="30"/>
+    <tableColumn id="31" xr3:uid="{E079F3AD-AA0B-412E-AB01-6AAB56E75F0F}" name="CoKumn29" dataDxfId="29">
       <calculatedColumnFormula>AD2/AC2/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{B2EDCF39-CF41-4EE7-A577-C9FA6678DEE5}" name="CoKumn30" dataDxfId="33"/>
-    <tableColumn id="33" xr3:uid="{12376C80-DC87-4120-B77C-335DC8411F9B}" name="CoKumn31" dataDxfId="32"/>
-    <tableColumn id="34" xr3:uid="{FF5425FB-0E93-40FC-9AC9-2E7184D310DC}" name="CoKumn32" dataDxfId="31"/>
-    <tableColumn id="35" xr3:uid="{49CE32B7-503D-4C1D-A8FA-49E58B452A92}" name="CoKumn33" dataDxfId="30">
+    <tableColumn id="32" xr3:uid="{B2EDCF39-CF41-4EE7-A577-C9FA6678DEE5}" name="CoKumn30" dataDxfId="28"/>
+    <tableColumn id="33" xr3:uid="{12376C80-DC87-4120-B77C-335DC8411F9B}" name="CoKumn31" dataDxfId="27"/>
+    <tableColumn id="34" xr3:uid="{FF5425FB-0E93-40FC-9AC9-2E7184D310DC}" name="CoKumn32" dataDxfId="26"/>
+    <tableColumn id="35" xr3:uid="{49CE32B7-503D-4C1D-A8FA-49E58B452A92}" name="CoKumn33" dataDxfId="25">
       <calculatedColumnFormula>AG2-AF2-AH2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{760E8939-37DE-4E24-A3BE-7F92611B8388}" name="CoKumn34" dataDxfId="29"/>
-    <tableColumn id="37" xr3:uid="{94989EB3-64E2-4F50-80F9-F78D29690A40}" name="CoKumn35" dataDxfId="28">
+    <tableColumn id="36" xr3:uid="{760E8939-37DE-4E24-A3BE-7F92611B8388}" name="CoKumn34" dataDxfId="24"/>
+    <tableColumn id="37" xr3:uid="{94989EB3-64E2-4F50-80F9-F78D29690A40}" name="CoKumn35" dataDxfId="23">
       <calculatedColumnFormula>AJ2/AI2/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{A595CE36-BE4C-4F40-B292-91E08C642823}" name="CoKumn36" dataDxfId="27"/>
-    <tableColumn id="39" xr3:uid="{28AE733C-F58F-470D-8EF3-1B25209EE08C}" name="CoKumn37" dataDxfId="26"/>
-    <tableColumn id="40" xr3:uid="{E2865463-F626-49FD-92EA-1D94027D5E51}" name="CoKumn38" dataDxfId="25"/>
-    <tableColumn id="41" xr3:uid="{A8BDD5B1-975F-450F-844C-26262461D489}" name="CoKumn39" dataDxfId="24">
+    <tableColumn id="38" xr3:uid="{A595CE36-BE4C-4F40-B292-91E08C642823}" name="CoKumn36" dataDxfId="22"/>
+    <tableColumn id="39" xr3:uid="{28AE733C-F58F-470D-8EF3-1B25209EE08C}" name="CoKumn37" dataDxfId="21"/>
+    <tableColumn id="40" xr3:uid="{E2865463-F626-49FD-92EA-1D94027D5E51}" name="CoKumn38" dataDxfId="20"/>
+    <tableColumn id="41" xr3:uid="{A8BDD5B1-975F-450F-844C-26262461D489}" name="CoKumn39" dataDxfId="19">
       <calculatedColumnFormula>AM2-AL2-AN2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{542CE64D-7245-41D2-A020-10DD3C7C0209}" name="CoKumn40" dataDxfId="23"/>
-    <tableColumn id="43" xr3:uid="{B9250344-F5CD-4491-9E9E-C01489991A80}" name="CoKumn41" dataDxfId="22">
+    <tableColumn id="42" xr3:uid="{542CE64D-7245-41D2-A020-10DD3C7C0209}" name="CoKumn40" dataDxfId="18"/>
+    <tableColumn id="43" xr3:uid="{B9250344-F5CD-4491-9E9E-C01489991A80}" name="CoKumn41" dataDxfId="17">
       <calculatedColumnFormula>AP2/AO2/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{3D623E78-5305-4958-BD62-A6A69A801B60}" name="CoKumn42" dataDxfId="21"/>
-    <tableColumn id="45" xr3:uid="{C955B1D3-99D8-4989-88BD-776C30120F73}" name="CoKumn43" dataDxfId="20"/>
-    <tableColumn id="46" xr3:uid="{DA4E5580-18EF-4297-989B-7A9EE0768D6C}" name="CoKumn44" dataDxfId="19"/>
-    <tableColumn id="47" xr3:uid="{B028D26E-A48C-4FE7-B1C0-77A37B03F665}" name="CoKumn45" dataDxfId="18">
+    <tableColumn id="44" xr3:uid="{3D623E78-5305-4958-BD62-A6A69A801B60}" name="CoKumn42" dataDxfId="16"/>
+    <tableColumn id="45" xr3:uid="{C955B1D3-99D8-4989-88BD-776C30120F73}" name="CoKumn43" dataDxfId="15"/>
+    <tableColumn id="46" xr3:uid="{DA4E5580-18EF-4297-989B-7A9EE0768D6C}" name="CoKumn44" dataDxfId="14"/>
+    <tableColumn id="47" xr3:uid="{B028D26E-A48C-4FE7-B1C0-77A37B03F665}" name="CoKumn45" dataDxfId="13">
       <calculatedColumnFormula>AS2-AR2-AT2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{FF7C3E73-3E0D-49E5-A00D-FEC973879B9A}" name="CoKumn46" dataDxfId="17"/>
-    <tableColumn id="49" xr3:uid="{49A5C806-B793-498B-A695-D751B5F0D107}" name="CoKumn47" dataDxfId="16">
+    <tableColumn id="48" xr3:uid="{FF7C3E73-3E0D-49E5-A00D-FEC973879B9A}" name="CoKumn46" dataDxfId="12"/>
+    <tableColumn id="49" xr3:uid="{49A5C806-B793-498B-A695-D751B5F0D107}" name="CoKumn47" dataDxfId="11">
       <calculatedColumnFormula>AV2/AU2/24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{80E0130A-17E6-422A-9C3C-FAF3CFECC130}" name="CoKumn48" dataDxfId="15"/>
-    <tableColumn id="51" xr3:uid="{2184D422-69AD-4B85-9DC0-769781806096}" name="CoKumn49" dataDxfId="14"/>
-    <tableColumn id="52" xr3:uid="{1C5AA6F9-54BA-4DB1-8D59-5A408CC3A338}" name="CoKumn50" dataDxfId="13"/>
-    <tableColumn id="53" xr3:uid="{A0799CE5-1E00-4797-B1A9-6FBB5C144C69}" name="CoKumn51" dataDxfId="12">
+    <tableColumn id="50" xr3:uid="{80E0130A-17E6-422A-9C3C-FAF3CFECC130}" name="CoKumn48" dataDxfId="10"/>
+    <tableColumn id="51" xr3:uid="{2184D422-69AD-4B85-9DC0-769781806096}" name="CoKumn49" dataDxfId="9"/>
+    <tableColumn id="52" xr3:uid="{1C5AA6F9-54BA-4DB1-8D59-5A408CC3A338}" name="CoKumn50" dataDxfId="8"/>
+    <tableColumn id="53" xr3:uid="{A0799CE5-1E00-4797-B1A9-6FBB5C144C69}" name="CoKumn51" dataDxfId="7">
       <calculatedColumnFormula>AY2-AX2-AZ2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="54" xr3:uid="{97E2238E-6027-4A40-9560-377A92D24A42}" name="CoKumn52" dataDxfId="11"/>
-    <tableColumn id="55" xr3:uid="{47B8554E-03CE-4295-94F3-7A3915561EA3}" name="CoKumn53" dataDxfId="10">
+    <tableColumn id="54" xr3:uid="{97E2238E-6027-4A40-9560-377A92D24A42}" name="CoKumn52" dataDxfId="6"/>
+    <tableColumn id="55" xr3:uid="{47B8554E-03CE-4295-94F3-7A3915561EA3}" name="CoKumn53" dataDxfId="5">
       <calculatedColumnFormula>BB2/BA2/24</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -34308,7 +34297,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEFA8A0E-C6FD-40B1-815F-07B19E0C52FB}" name="Table5" displayName="Table5" ref="B1:G38" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEFA8A0E-C6FD-40B1-815F-07B19E0C52FB}" name="Table5" displayName="Table5" ref="B1:G38" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B1:G38" xr:uid="{EEFA8A0E-C6FD-40B1-815F-07B19E0C52FB}">
     <filterColumn colId="1">
       <filters>
@@ -34317,14 +34306,14 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D5EF1E8F-CDFD-4EBB-8697-9C0D4D81F1D0}" name="Date" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{D5EF1E8F-CDFD-4EBB-8697-9C0D4D81F1D0}" name="Date" dataDxfId="3">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{307520BD-D4A8-4E98-A8CF-ADB663CA7CDC}" name="Machine"/>
     <tableColumn id="3" xr3:uid="{8EFDC0B0-0E20-43EC-865A-AB16D2110DFD}" name="Downtime Cause"/>
-    <tableColumn id="4" xr3:uid="{19D29DE3-A4AF-4B16-A8C1-9F62B02D41D1}" name="Downtime Start" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{0F575033-1379-4BB5-85AE-228FBCDE0E87}" name="Downtime  Stop" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{C5DB9D3C-70BF-4169-B906-C9CEEA4B62CC}" name="Downtime" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{19D29DE3-A4AF-4B16-A8C1-9F62B02D41D1}" name="Downtime Start" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0F575033-1379-4BB5-85AE-228FBCDE0E87}" name="Downtime  Stop" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{C5DB9D3C-70BF-4169-B906-C9CEEA4B62CC}" name="Downtime" dataDxfId="0">
       <calculatedColumnFormula>F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -34648,8 +34637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D1B7EE-D3AD-4A0F-AE12-F637A633D080}">
   <dimension ref="B1:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34662,25 +34651,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="20" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
     </row>
     <row r="2" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -34697,12 +34686,12 @@
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="J5" s="31" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="4:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="53" t="s">
         <v>45</v>
       </c>
       <c r="J21" s="30" t="s">
@@ -34717,7 +34706,8 @@
     <mergeCell ref="B1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="26" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -34757,48 +34747,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="55" t="s">
+      <c r="P1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="V1" s="55" t="s">
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="V1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="55" t="s">
+      <c r="W1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -34816,11 +34806,11 @@
         <v>1.1487275274340416</v>
       </c>
       <c r="E2" s="3">
-        <f>IF($C2&lt;&gt;Machine,$D2,NA())</f>
+        <f t="shared" ref="E2:E10" si="0">IF($C2&lt;&gt;Machine,$D2,NA())</f>
         <v>1.1487275274340416</v>
       </c>
       <c r="F2" s="3" t="e">
-        <f>IF($C2=Machine,$D2,NA())</f>
+        <f t="shared" ref="F2:F10" si="1">IF($C2=Machine,$D2,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H2" t="s">
@@ -34838,55 +34828,55 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="L2" s="27">
-        <f>IF($J2&lt;&gt;Machine,$K2,NA())</f>
+        <f t="shared" ref="L2:L10" si="2">IF($J2&lt;&gt;Machine,$K2,NA())</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="M2" s="27" t="e">
-        <f>IF($J2=Machine,$K2,NA())</f>
+        <f t="shared" ref="M2:M10" si="3">IF($J2=Machine,$K2,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="56" cm="1">
+      <c r="P2" s="27" cm="1">
         <f t="array" ref="P2">AVERAGE(IF((Table4[Machine]=Calculation!$O2),Table4[Total Running Hour]))</f>
         <v>9.8509259259259269E-2</v>
       </c>
-      <c r="Q2" s="57" t="str" cm="1">
+      <c r="Q2" t="str" cm="1">
         <f t="array" ref="Q2:R10">_xlfn._xlws.SORT(O2:P10,2,1)</f>
         <v>BRDR8</v>
       </c>
-      <c r="R2" s="56">
+      <c r="R2" s="27">
         <v>9.7143518518518518E-2</v>
       </c>
-      <c r="S2" s="56">
-        <f>IF($Q2&lt;&gt;Machine,$R2,NA())</f>
+      <c r="S2" s="27">
+        <f t="shared" ref="S2:S10" si="4">IF($Q2&lt;&gt;Machine,$R2,NA())</f>
         <v>9.7143518518518518E-2</v>
       </c>
-      <c r="T2" s="56" t="e">
-        <f>IF($Q2=Machine,$R2,NA())</f>
+      <c r="T2" s="27" t="e">
+        <f t="shared" ref="T2:T10" si="5">IF($Q2=Machine,$R2,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="V2" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="64" cm="1">
+      <c r="W2" s="38" cm="1">
         <f t="array" ref="W2">AVERAGE(IF((Table4[Machine]=Calculation!$O2),Table4[Average Running Hour]))</f>
         <v>0.36940972222222224</v>
       </c>
-      <c r="X2" s="65" t="str" cm="1">
+      <c r="X2" t="str" cm="1">
         <f t="array" ref="X2:Y10">_xlfn._xlws.SORT(V2:W10,2,1)</f>
         <v>BRDR8</v>
       </c>
-      <c r="Y2" s="64">
+      <c r="Y2" s="38">
         <v>0.36428819444444444</v>
       </c>
-      <c r="Z2" s="64">
-        <f>IF($X2&lt;&gt;Machine,$Y2,NA())</f>
+      <c r="Z2" s="38">
+        <f t="shared" ref="Z2:Z10" si="6">IF($X2&lt;&gt;Machine,$Y2,NA())</f>
         <v>0.36428819444444444</v>
       </c>
-      <c r="AA2" s="64" t="e">
-        <f>IF($X2=Machine,$Y2,NA())</f>
+      <c r="AA2" s="38" t="e">
+        <f t="shared" ref="AA2:AA10" si="7">IF($X2=Machine,$Y2,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -34905,11 +34895,11 @@
         <v>1.1623564559798338</v>
       </c>
       <c r="E3" s="3">
-        <f>IF($C3&lt;&gt;Machine,$D3,NA())</f>
+        <f t="shared" si="0"/>
         <v>1.1623564559798338</v>
       </c>
       <c r="F3" s="3" t="e">
-        <f>IF($C3=Machine,$D3,NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H3" t="s">
@@ -34926,53 +34916,53 @@
         <v>4.9444444444444458E-2</v>
       </c>
       <c r="L3" s="27">
-        <f>IF($J3&lt;&gt;Machine,$K3,NA())</f>
+        <f t="shared" si="2"/>
         <v>4.9444444444444458E-2</v>
       </c>
       <c r="M3" s="27" t="e">
-        <f>IF($J3=Machine,$K3,NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="56" cm="1">
+      <c r="P3" s="27" cm="1">
         <f t="array" ref="P3">AVERAGE(IF((Table4[Machine]=Calculation!$O3),Table4[Total Running Hour]))</f>
         <v>9.9175925925925931E-2</v>
       </c>
-      <c r="Q3" s="57" t="str">
+      <c r="Q3" t="str">
         <v>BRDR9</v>
       </c>
-      <c r="R3" s="56">
+      <c r="R3" s="27">
         <v>9.7328703703703695E-2</v>
       </c>
-      <c r="S3" s="56">
-        <f>IF($Q3&lt;&gt;Machine,$R3,NA())</f>
+      <c r="S3" s="27">
+        <f t="shared" si="4"/>
         <v>9.7328703703703695E-2</v>
       </c>
-      <c r="T3" s="56" t="e">
-        <f>IF($Q3=Machine,$R3,NA())</f>
+      <c r="T3" s="27" t="e">
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="V3" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="64" cm="1">
+      <c r="W3" s="38" cm="1">
         <f t="array" ref="W3">AVERAGE(IF((Table4[Machine]=Calculation!$O3),Table4[Average Running Hour]))</f>
         <v>0.37190972222222224</v>
       </c>
-      <c r="X3" s="65" t="str">
+      <c r="X3" t="str">
         <v>BRDR9</v>
       </c>
-      <c r="Y3" s="64">
+      <c r="Y3" s="38">
         <v>0.36498263888888888</v>
       </c>
-      <c r="Z3" s="64">
-        <f>IF($X3&lt;&gt;Machine,$Y3,NA())</f>
+      <c r="Z3" s="38">
+        <f t="shared" si="6"/>
         <v>0.36498263888888888</v>
       </c>
-      <c r="AA3" s="64" t="e">
-        <f>IF($X3=Machine,$Y3,NA())</f>
+      <c r="AA3" s="38" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -34991,11 +34981,11 @@
         <v>1.1707317073170729</v>
       </c>
       <c r="E4" s="3">
-        <f>IF($C4&lt;&gt;Machine,$D4,NA())</f>
+        <f t="shared" si="0"/>
         <v>1.1707317073170729</v>
       </c>
       <c r="F4" s="3" t="e">
-        <f>IF($C4=Machine,$D4,NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H4" t="s">
@@ -35012,54 +35002,54 @@
         <v>5.1388888888888928E-2</v>
       </c>
       <c r="L4" s="27">
-        <f>IF($J4&lt;&gt;Machine,$K4,NA())</f>
+        <f t="shared" si="2"/>
         <v>5.1388888888888928E-2</v>
       </c>
       <c r="M4" s="27" t="e">
-        <f>IF($J4=Machine,$K4,NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="O4" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="56" cm="1">
+      <c r="P4" s="27" cm="1">
         <f t="array" ref="P4">AVERAGE(IF((Table4[Machine]=Calculation!$O4),Table4[Total Running Hour]))</f>
         <v>9.9652777777777798E-2</v>
       </c>
-      <c r="Q4" s="57" t="str">
+      <c r="Q4" t="str">
         <v>BRDR1</v>
       </c>
-      <c r="R4" s="56">
+      <c r="R4" s="27">
         <v>9.8509259259259269E-2</v>
       </c>
-      <c r="S4" s="56">
-        <f>IF($Q4&lt;&gt;Machine,$R4,NA())</f>
+      <c r="S4" s="27" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T4" s="27">
+        <f t="shared" si="5"/>
         <v>9.8509259259259269E-2</v>
-      </c>
-      <c r="T4" s="56" t="e">
-        <f>IF($Q4=Machine,$R4,NA())</f>
-        <v>#N/A</v>
       </c>
       <c r="V4" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="64" cm="1">
+      <c r="W4" s="38" cm="1">
         <f t="array" ref="W4">AVERAGE(IF((Table4[Machine]=Calculation!$O4),Table4[Average Running Hour]))</f>
         <v>0.37369791666666674</v>
       </c>
-      <c r="X4" s="65" t="str">
+      <c r="X4" t="str">
         <v>BRDR1</v>
       </c>
-      <c r="Y4" s="64">
+      <c r="Y4" s="38">
         <v>0.36940972222222224</v>
       </c>
-      <c r="Z4" s="64">
-        <f>IF($X4&lt;&gt;Machine,$Y4,NA())</f>
+      <c r="Z4" s="38" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA4" s="38">
+        <f t="shared" si="7"/>
         <v>0.36940972222222224</v>
-      </c>
-      <c r="AA4" s="64" t="e">
-        <f>IF($X4=Machine,$Y4,NA())</f>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
@@ -35076,13 +35066,13 @@
       <c r="D5" s="3">
         <v>1.1772723000281979</v>
       </c>
-      <c r="E5" s="3">
-        <f>IF($C5&lt;&gt;Machine,$D5,NA())</f>
+      <c r="E5" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
         <v>1.1772723000281979</v>
-      </c>
-      <c r="F5" s="3" t="e">
-        <f>IF($C5=Machine,$D5,NA())</f>
-        <v>#N/A</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -35098,53 +35088,53 @@
         <v>6.8333333333333357E-2</v>
       </c>
       <c r="L5" s="27">
-        <f>IF($J5&lt;&gt;Machine,$K5,NA())</f>
+        <f t="shared" si="2"/>
         <v>6.8333333333333357E-2</v>
       </c>
       <c r="M5" s="27" t="e">
-        <f>IF($J5=Machine,$K5,NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="O5" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="56" cm="1">
+      <c r="P5" s="27" cm="1">
         <f t="array" ref="P5">AVERAGE(IF((Table4[Machine]=Calculation!$O5),Table4[Total Running Hour]))</f>
         <v>9.914351851851852E-2</v>
       </c>
-      <c r="Q5" s="57" t="str">
+      <c r="Q5" t="str">
         <v>BRDR7</v>
       </c>
-      <c r="R5" s="56">
+      <c r="R5" s="27">
         <v>9.8583333333333342E-2</v>
       </c>
-      <c r="S5" s="56">
-        <f>IF($Q5&lt;&gt;Machine,$R5,NA())</f>
+      <c r="S5" s="27">
+        <f t="shared" si="4"/>
         <v>9.8583333333333342E-2</v>
       </c>
-      <c r="T5" s="56" t="e">
-        <f>IF($Q5=Machine,$R5,NA())</f>
+      <c r="T5" s="27" t="e">
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="V5" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="64" cm="1">
+      <c r="W5" s="38" cm="1">
         <f t="array" ref="W5">AVERAGE(IF((Table4[Machine]=Calculation!$O5),Table4[Average Running Hour]))</f>
         <v>0.37178819444444444</v>
       </c>
-      <c r="X5" s="65" t="str">
+      <c r="X5" t="str">
         <v>BRDR7</v>
       </c>
-      <c r="Y5" s="64">
+      <c r="Y5" s="38">
         <v>0.36968750000000006</v>
       </c>
-      <c r="Z5" s="64">
-        <f>IF($X5&lt;&gt;Machine,$Y5,NA())</f>
+      <c r="Z5" s="38">
+        <f t="shared" si="6"/>
         <v>0.36968750000000006</v>
       </c>
-      <c r="AA5" s="64" t="e">
-        <f>IF($X5=Machine,$Y5,NA())</f>
+      <c r="AA5" s="38" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -35163,11 +35153,11 @@
         <v>1.1844170670218335</v>
       </c>
       <c r="E6" s="3">
-        <f>IF($C6&lt;&gt;Machine,$D6,NA())</f>
+        <f t="shared" si="0"/>
         <v>1.1844170670218335</v>
       </c>
       <c r="F6" s="3" t="e">
-        <f>IF($C6=Machine,$D6,NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H6" t="s">
@@ -35183,55 +35173,55 @@
       <c r="K6" s="27">
         <v>8.1388888888888899E-2</v>
       </c>
-      <c r="L6" s="27" t="e">
-        <f>IF($J6&lt;&gt;Machine,$K6,NA())</f>
+      <c r="L6" s="27">
+        <f t="shared" si="2"/>
+        <v>8.1388888888888899E-2</v>
+      </c>
+      <c r="M6" s="27" t="e">
+        <f t="shared" si="3"/>
         <v>#N/A</v>
-      </c>
-      <c r="M6" s="27">
-        <f>IF($J6=Machine,$K6,NA())</f>
-        <v>8.1388888888888899E-2</v>
       </c>
       <c r="O6" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="56" cm="1">
+      <c r="P6" s="27" cm="1">
         <f t="array" ref="P6">AVERAGE(IF((Table4[Machine]=Calculation!$O6),Table4[Total Running Hour]))</f>
         <v>9.8643518518518533E-2</v>
       </c>
-      <c r="Q6" s="57" t="str">
+      <c r="Q6" t="str">
         <v>BRDR5</v>
       </c>
-      <c r="R6" s="56">
+      <c r="R6" s="27">
         <v>9.8643518518518533E-2</v>
       </c>
-      <c r="S6" s="56" t="e">
-        <f>IF($Q6&lt;&gt;Machine,$R6,NA())</f>
+      <c r="S6" s="27">
+        <f t="shared" si="4"/>
+        <v>9.8643518518518533E-2</v>
+      </c>
+      <c r="T6" s="27" t="e">
+        <f t="shared" si="5"/>
         <v>#N/A</v>
-      </c>
-      <c r="T6" s="56">
-        <f>IF($Q6=Machine,$R6,NA())</f>
-        <v>9.8643518518518533E-2</v>
       </c>
       <c r="V6" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="64" cm="1">
+      <c r="W6" s="38" cm="1">
         <f t="array" ref="W6">AVERAGE(IF((Table4[Machine]=Calculation!$O6),Table4[Average Running Hour]))</f>
         <v>0.36991319444444448</v>
       </c>
-      <c r="X6" s="65" t="str">
+      <c r="X6" t="str">
         <v>BRDR5</v>
       </c>
-      <c r="Y6" s="64">
+      <c r="Y6" s="38">
         <v>0.36991319444444448</v>
       </c>
-      <c r="Z6" s="64" t="e">
-        <f>IF($X6&lt;&gt;Machine,$Y6,NA())</f>
+      <c r="Z6" s="38">
+        <f t="shared" si="6"/>
+        <v>0.36991319444444448</v>
+      </c>
+      <c r="AA6" s="38" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
-      </c>
-      <c r="AA6" s="64">
-        <f>IF($X6=Machine,$Y6,NA())</f>
-        <v>0.36991319444444448</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
@@ -35249,11 +35239,11 @@
         <v>1.1941556617027254</v>
       </c>
       <c r="E7" s="3">
-        <f>IF($C7&lt;&gt;Machine,$D7,NA())</f>
+        <f t="shared" si="0"/>
         <v>1.1941556617027254</v>
       </c>
       <c r="F7" s="3" t="e">
-        <f>IF($C7=Machine,$D7,NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H7" t="s">
@@ -35270,53 +35260,53 @@
         <v>8.4999999999999964E-2</v>
       </c>
       <c r="L7" s="27">
-        <f>IF($J7&lt;&gt;Machine,$K7,NA())</f>
+        <f t="shared" si="2"/>
         <v>8.4999999999999964E-2</v>
       </c>
       <c r="M7" s="27" t="e">
-        <f>IF($J7=Machine,$K7,NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="O7" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="56" cm="1">
+      <c r="P7" s="27" cm="1">
         <f t="array" ref="P7">AVERAGE(IF((Table4[Machine]=Calculation!$O7),Table4[Total Running Hour]))</f>
         <v>9.8861111111111122E-2</v>
       </c>
-      <c r="Q7" s="57" t="str">
+      <c r="Q7" t="str">
         <v>BRDR6</v>
       </c>
-      <c r="R7" s="56">
+      <c r="R7" s="27">
         <v>9.8861111111111122E-2</v>
       </c>
-      <c r="S7" s="56">
-        <f>IF($Q7&lt;&gt;Machine,$R7,NA())</f>
+      <c r="S7" s="27">
+        <f t="shared" si="4"/>
         <v>9.8861111111111122E-2</v>
       </c>
-      <c r="T7" s="56" t="e">
-        <f>IF($Q7=Machine,$R7,NA())</f>
+      <c r="T7" s="27" t="e">
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="V7" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="64" cm="1">
+      <c r="W7" s="38" cm="1">
         <f t="array" ref="W7">AVERAGE(IF((Table4[Machine]=Calculation!$O7),Table4[Average Running Hour]))</f>
         <v>0.37072916666666672</v>
       </c>
-      <c r="X7" s="65" t="str">
+      <c r="X7" t="str">
         <v>BRDR6</v>
       </c>
-      <c r="Y7" s="64">
+      <c r="Y7" s="38">
         <v>0.37072916666666672</v>
       </c>
-      <c r="Z7" s="64">
-        <f>IF($X7&lt;&gt;Machine,$Y7,NA())</f>
+      <c r="Z7" s="38">
+        <f t="shared" si="6"/>
         <v>0.37072916666666672</v>
       </c>
-      <c r="AA7" s="64" t="e">
-        <f>IF($X7=Machine,$Y7,NA())</f>
+      <c r="AA7" s="38" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -35334,13 +35324,13 @@
       <c r="D8" s="3">
         <v>1.196789787393814</v>
       </c>
-      <c r="E8" s="3" t="e">
-        <f>IF($C8&lt;&gt;Machine,$D8,NA())</f>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.196789787393814</v>
+      </c>
+      <c r="F8" s="3" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
-      </c>
-      <c r="F8" s="3">
-        <f>IF($C8=Machine,$D8,NA())</f>
-        <v>1.196789787393814</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -35355,54 +35345,54 @@
       <c r="K8" s="27">
         <v>8.9444444444444438E-2</v>
       </c>
-      <c r="L8" s="27">
-        <f>IF($J8&lt;&gt;Machine,$K8,NA())</f>
+      <c r="L8" s="27" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="3"/>
         <v>8.9444444444444438E-2</v>
-      </c>
-      <c r="M8" s="27" t="e">
-        <f>IF($J8=Machine,$K8,NA())</f>
-        <v>#N/A</v>
       </c>
       <c r="O8" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="56" cm="1">
+      <c r="P8" s="27" cm="1">
         <f t="array" ref="P8">AVERAGE(IF((Table4[Machine]=Calculation!$O8),Table4[Total Running Hour]))</f>
         <v>9.8583333333333342E-2</v>
       </c>
-      <c r="Q8" s="57" t="str">
+      <c r="Q8" t="str">
         <v>BRDR4</v>
       </c>
-      <c r="R8" s="56">
+      <c r="R8" s="27">
         <v>9.914351851851852E-2</v>
       </c>
-      <c r="S8" s="56">
-        <f>IF($Q8&lt;&gt;Machine,$R8,NA())</f>
+      <c r="S8" s="27">
+        <f t="shared" si="4"/>
         <v>9.914351851851852E-2</v>
       </c>
-      <c r="T8" s="56" t="e">
-        <f>IF($Q8=Machine,$R8,NA())</f>
+      <c r="T8" s="27" t="e">
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="V8" t="s">
         <v>9</v>
       </c>
-      <c r="W8" s="64" cm="1">
+      <c r="W8" s="38" cm="1">
         <f t="array" ref="W8">AVERAGE(IF((Table4[Machine]=Calculation!$O8),Table4[Average Running Hour]))</f>
         <v>0.36968750000000006</v>
       </c>
-      <c r="X8" s="65" t="str">
+      <c r="X8" t="str">
         <v>BRDR4</v>
       </c>
-      <c r="Y8" s="64">
+      <c r="Y8" s="38">
         <v>0.37178819444444444</v>
       </c>
-      <c r="Z8" s="64">
-        <f>IF($X8&lt;&gt;Machine,$Y8,NA())</f>
+      <c r="Z8" s="38">
+        <f t="shared" si="6"/>
         <v>0.37178819444444444</v>
       </c>
-      <c r="AA8" s="64" t="e">
-        <f>IF($X8=Machine,$Y8,NA())</f>
+      <c r="AA8" s="38" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -35421,11 +35411,11 @@
         <v>1.2045646661031275</v>
       </c>
       <c r="E9" s="3">
-        <f>IF($C9&lt;&gt;Machine,$D9,NA())</f>
+        <f t="shared" si="0"/>
         <v>1.2045646661031275</v>
       </c>
       <c r="F9" s="3" t="e">
-        <f>IF($C9=Machine,$D9,NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H9" t="s">
@@ -35442,53 +35432,53 @@
         <v>0.16027777777777774</v>
       </c>
       <c r="L9" s="27">
-        <f>IF($J9&lt;&gt;Machine,$K9,NA())</f>
+        <f t="shared" si="2"/>
         <v>0.16027777777777774</v>
       </c>
       <c r="M9" s="27" t="e">
-        <f>IF($J9=Machine,$K9,NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="O9" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="56" cm="1">
+      <c r="P9" s="27" cm="1">
         <f t="array" ref="P9">AVERAGE(IF((Table4[Machine]=Calculation!$O9),Table4[Total Running Hour]))</f>
         <v>9.7143518518518518E-2</v>
       </c>
-      <c r="Q9" s="57" t="str">
+      <c r="Q9" t="str">
         <v>BRDR2</v>
       </c>
-      <c r="R9" s="56">
+      <c r="R9" s="27">
         <v>9.9175925925925931E-2</v>
       </c>
-      <c r="S9" s="56">
-        <f>IF($Q9&lt;&gt;Machine,$R9,NA())</f>
+      <c r="S9" s="27">
+        <f t="shared" si="4"/>
         <v>9.9175925925925931E-2</v>
       </c>
-      <c r="T9" s="56" t="e">
-        <f>IF($Q9=Machine,$R9,NA())</f>
+      <c r="T9" s="27" t="e">
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="V9" t="s">
         <v>10</v>
       </c>
-      <c r="W9" s="64" cm="1">
+      <c r="W9" s="38" cm="1">
         <f t="array" ref="W9">AVERAGE(IF((Table4[Machine]=Calculation!$O9),Table4[Average Running Hour]))</f>
         <v>0.36428819444444444</v>
       </c>
-      <c r="X9" s="65" t="str">
+      <c r="X9" t="str">
         <v>BRDR2</v>
       </c>
-      <c r="Y9" s="64">
+      <c r="Y9" s="38">
         <v>0.37190972222222224</v>
       </c>
-      <c r="Z9" s="64">
-        <f>IF($X9&lt;&gt;Machine,$Y9,NA())</f>
+      <c r="Z9" s="38">
+        <f t="shared" si="6"/>
         <v>0.37190972222222224</v>
       </c>
-      <c r="AA9" s="64" t="e">
-        <f>IF($X9=Machine,$Y9,NA())</f>
+      <c r="AA9" s="38" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -35507,11 +35497,11 @@
         <v>1.2367154363055806</v>
       </c>
       <c r="E10" s="3">
-        <f>IF($C10&lt;&gt;Machine,$D10,NA())</f>
+        <f t="shared" si="0"/>
         <v>1.2367154363055806</v>
       </c>
       <c r="F10" s="3" t="e">
-        <f>IF($C10=Machine,$D10,NA())</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="H10" t="s">
@@ -35528,106 +35518,106 @@
         <v>0.17138888888888887</v>
       </c>
       <c r="L10" s="27">
-        <f>IF($J10&lt;&gt;Machine,$K10,NA())</f>
+        <f t="shared" si="2"/>
         <v>0.17138888888888887</v>
       </c>
       <c r="M10" s="27" t="e">
-        <f>IF($J10=Machine,$K10,NA())</f>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="O10" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="56" cm="1">
+      <c r="P10" s="27" cm="1">
         <f t="array" ref="P10">AVERAGE(IF((Table4[Machine]=Calculation!$O10),Table4[Total Running Hour]))</f>
         <v>9.7328703703703695E-2</v>
       </c>
-      <c r="Q10" s="57" t="str">
+      <c r="Q10" t="str">
         <v>BRDR3</v>
       </c>
-      <c r="R10" s="56">
+      <c r="R10" s="27">
         <v>9.9652777777777798E-2</v>
       </c>
-      <c r="S10" s="56">
-        <f>IF($Q10&lt;&gt;Machine,$R10,NA())</f>
+      <c r="S10" s="27">
+        <f t="shared" si="4"/>
         <v>9.9652777777777798E-2</v>
       </c>
-      <c r="T10" s="56" t="e">
-        <f>IF($Q10=Machine,$R10,NA())</f>
+      <c r="T10" s="27" t="e">
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="V10" t="s">
         <v>11</v>
       </c>
-      <c r="W10" s="64" cm="1">
+      <c r="W10" s="38" cm="1">
         <f t="array" ref="W10">AVERAGE(IF((Table4[Machine]=Calculation!$O10),Table4[Average Running Hour]))</f>
         <v>0.36498263888888888</v>
       </c>
-      <c r="X10" s="65" t="str">
+      <c r="X10" t="str">
         <v>BRDR3</v>
       </c>
-      <c r="Y10" s="64">
+      <c r="Y10" s="38">
         <v>0.37369791666666674</v>
       </c>
-      <c r="Z10" s="64">
-        <f>IF($X10&lt;&gt;Machine,$Y10,NA())</f>
+      <c r="Z10" s="38">
+        <f t="shared" si="6"/>
         <v>0.37369791666666674</v>
       </c>
-      <c r="AA10" s="64" t="e">
-        <f>IF($X10=Machine,$Y10,NA())</f>
+      <c r="AA10" s="38" t="e">
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
     </row>
     <row r="14" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="55" t="s">
+      <c r="K14" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="55" t="s">
+      <c r="L14" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="55" t="s">
+      <c r="M14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="55" t="s">
+      <c r="N14" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
     </row>
     <row r="15" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -35645,11 +35635,11 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>IF($C15&lt;&gt;Machine,$D15,NA())</f>
+        <f t="shared" ref="E15:E23" si="8">IF($C15&lt;&gt;Machine,$D15,NA())</f>
         <v>2</v>
       </c>
       <c r="F15" t="e">
-        <f>IF($C15=Machine,$D15,NA())</f>
+        <f t="shared" ref="F15:F23" si="9">IF($C15=Machine,$D15,NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H15" t="s">
@@ -35674,14 +35664,14 @@
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="P15" s="38" t="s">
+      <c r="P15" s="37" t="s">
         <v>12</v>
       </c>
       <c r="Q15">
         <f>I25</f>
         <v>2</v>
       </c>
-      <c r="S15" s="38" t="str" cm="1">
+      <c r="S15" s="37" t="str" cm="1">
         <f t="array" ref="S15:T20">_xlfn._xlws.SORT(P15:Q20,2,1)</f>
         <v>Jarum patah</v>
       </c>
@@ -35704,11 +35694,11 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <f>IF($C16&lt;&gt;Machine,$D16,NA())</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="F16" t="e">
-        <f>IF($C16=Machine,$D16,NA())</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H16" t="s">
@@ -35733,14 +35723,14 @@
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="P16" s="38" t="s">
+      <c r="P16" s="37" t="s">
         <v>27</v>
       </c>
       <c r="Q16">
         <f>J25</f>
         <v>7</v>
       </c>
-      <c r="S16" s="38" t="str">
+      <c r="S16" s="37" t="str">
         <v>Sensor Lepas</v>
       </c>
       <c r="T16">
@@ -35762,11 +35752,11 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <f>IF($C17&lt;&gt;Machine,$D17,NA())</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="F17" t="e">
-        <f>IF($C17=Machine,$D17,NA())</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H17" t="s">
@@ -35791,14 +35781,14 @@
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="P17" s="38" t="s">
+      <c r="P17" s="37" t="s">
         <v>28</v>
       </c>
       <c r="Q17">
         <f>K25</f>
         <v>13</v>
       </c>
-      <c r="S17" s="38" t="str">
+      <c r="S17" s="37" t="str">
         <v>Benang Putus</v>
       </c>
       <c r="T17">
@@ -35820,11 +35810,11 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <f>IF($C18&lt;&gt;Machine,$D18,NA())</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="F18" t="e">
-        <f>IF($C18=Machine,$D18,NA())</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H18" t="s">
@@ -35849,14 +35839,14 @@
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="P18" s="38" t="s">
+      <c r="P18" s="37" t="s">
         <v>29</v>
       </c>
       <c r="Q18">
         <f>L25</f>
         <v>4</v>
       </c>
-      <c r="S18" s="38" t="str">
+      <c r="S18" s="37" t="str">
         <v>Bundet Bawah</v>
       </c>
       <c r="T18">
@@ -35878,11 +35868,11 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <f>IF($C19&lt;&gt;Machine,$D19,NA())</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="F19" t="e">
-        <f>IF($C19=Machine,$D19,NA())</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H19" t="s">
@@ -35907,14 +35897,14 @@
       <c r="N19">
         <v>1</v>
       </c>
-      <c r="P19" s="38" t="s">
+      <c r="P19" s="37" t="s">
         <v>30</v>
       </c>
       <c r="Q19">
         <f>M25</f>
         <v>2</v>
       </c>
-      <c r="S19" s="38" t="str">
+      <c r="S19" s="37" t="str">
         <v>Mesin mati</v>
       </c>
       <c r="T19">
@@ -35935,13 +35925,13 @@
       <c r="D20">
         <v>5</v>
       </c>
-      <c r="E20">
-        <f>IF($C20&lt;&gt;Machine,$D20,NA())</f>
+      <c r="E20" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="9"/>
         <v>5</v>
-      </c>
-      <c r="F20" t="e">
-        <f>IF($C20=Machine,$D20,NA())</f>
-        <v>#N/A</v>
       </c>
       <c r="H20" t="s">
         <v>8</v>
@@ -35965,14 +35955,14 @@
       <c r="N20">
         <v>3</v>
       </c>
-      <c r="P20" s="38" t="s">
+      <c r="P20" s="37" t="s">
         <v>31</v>
       </c>
       <c r="Q20">
         <f>N25</f>
         <v>9</v>
       </c>
-      <c r="S20" s="38" t="str">
+      <c r="S20" s="37" t="str">
         <v>Bundet Atas</v>
       </c>
       <c r="T20">
@@ -35993,13 +35983,13 @@
       <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21" t="e">
-        <f>IF($C21&lt;&gt;Machine,$D21,NA())</f>
+      <c r="E21">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="F21" t="e">
+        <f t="shared" si="9"/>
         <v>#N/A</v>
-      </c>
-      <c r="F21">
-        <f>IF($C21=Machine,$D21,NA())</f>
-        <v>5</v>
       </c>
       <c r="H21" t="s">
         <v>9</v>
@@ -36039,11 +36029,11 @@
         <v>7</v>
       </c>
       <c r="E22">
-        <f>IF($C22&lt;&gt;Machine,$D22,NA())</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="F22" t="e">
-        <f>IF($C22=Machine,$D22,NA())</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H22" t="s">
@@ -36084,11 +36074,11 @@
         <v>7</v>
       </c>
       <c r="E23">
-        <f>IF($C23&lt;&gt;Machine,$D23,NA())</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="F23" t="e">
-        <f>IF($C23=Machine,$D23,NA())</f>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="H23" t="s">
@@ -36123,23 +36113,23 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25:N25" si="0">SUM(J15:J24)</f>
+        <f t="shared" ref="J25:N25" si="10">SUM(J15:J24)</f>
         <v>7</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="M25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
@@ -36217,7 +36207,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1A14CC-925B-4E53-9B50-41E760B43572}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
@@ -36233,306 +36223,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D2" s="42" cm="1">
+      <c r="D2" s="27" cm="1">
         <f t="array" ref="D2">SUM(IF((Table4[[#This Row],[Machine]]=Table5[Machine]),Table5[Downtime]))</f>
         <v>8.9444444444444438E-2</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="27">
         <f>'Daily Performance Monitoring '!BF4</f>
         <v>9.8509259259259269E-2</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="38">
         <f>'Daily Performance Monitoring '!BG4</f>
         <v>0.36940972222222224</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="32">
         <f>'Daily Performance Monitoring '!BH4</f>
         <v>167</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="3">
         <f>Table4[[#This Row],[Product]]/Table4[[#This Row],[Total Running Hour]]/1440</f>
         <v>1.1772723000281979</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D3" s="42" cm="1">
+      <c r="D3" s="27" cm="1">
         <f t="array" ref="D3">SUM(IF((Table4[[#This Row],[Machine]]=Table5[Machine]),Table5[Downtime]))</f>
         <v>4.9444444444444458E-2</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="27">
         <f>'Daily Performance Monitoring '!BF5</f>
         <v>9.9175925925925931E-2</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="38">
         <f>'Daily Performance Monitoring '!BG5</f>
         <v>0.37190972222222224</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="32">
         <f>'Daily Performance Monitoring '!BH5</f>
         <v>166</v>
       </c>
-      <c r="H3" s="53">
+      <c r="H3" s="45">
         <f>Table4[[#This Row],[Product]]/Table4[[#This Row],[Total Running Hour]]/1440</f>
         <v>1.1623564559798338</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="52" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D4" s="42" cm="1">
+      <c r="D4" s="27" cm="1">
         <f t="array" ref="D4">SUM(IF((Table4[[#This Row],[Machine]]=Table5[Machine]),Table5[Downtime]))</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="27">
         <f>'Daily Performance Monitoring '!BF6</f>
         <v>9.9652777777777798E-2</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="38">
         <f>'Daily Performance Monitoring '!BG6</f>
         <v>0.37369791666666674</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="32">
         <f>'Daily Performance Monitoring '!BH6</f>
         <v>168</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="45">
         <f>Table4[[#This Row],[Product]]/Table4[[#This Row],[Total Running Hour]]/1440</f>
         <v>1.1707317073170729</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="52" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D5" s="42" cm="1">
+      <c r="D5" s="27" cm="1">
         <f t="array" ref="D5">SUM(IF((Table4[[#This Row],[Machine]]=Table5[Machine]),Table5[Downtime]))</f>
         <v>5.1388888888888928E-2</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="27">
         <f>'Daily Performance Monitoring '!BF7</f>
         <v>9.914351851851852E-2</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="38">
         <f>'Daily Performance Monitoring '!BG7</f>
         <v>0.37178819444444444</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="32">
         <f>'Daily Performance Monitoring '!BH7</f>
         <v>164</v>
       </c>
-      <c r="H5" s="53">
+      <c r="H5" s="45">
         <f>Table4[[#This Row],[Product]]/Table4[[#This Row],[Total Running Hour]]/1440</f>
         <v>1.1487275274340416</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="52" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D6" s="42" cm="1">
+      <c r="D6" s="27" cm="1">
         <f t="array" ref="D6">SUM(IF((Table4[[#This Row],[Machine]]=Table5[Machine]),Table5[Downtime]))</f>
         <v>8.1388888888888899E-2</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="27">
         <f>'Daily Performance Monitoring '!BF8</f>
         <v>9.8643518518518533E-2</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="38">
         <f>'Daily Performance Monitoring '!BG8</f>
         <v>0.36991319444444448</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="32">
         <f>'Daily Performance Monitoring '!BH8</f>
         <v>170</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="45">
         <f>Table4[[#This Row],[Product]]/Table4[[#This Row],[Total Running Hour]]/1440</f>
         <v>1.196789787393814</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="52" t="s">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D7" s="42" cm="1">
+      <c r="D7" s="27" cm="1">
         <f t="array" ref="D7">SUM(IF((Table4[[#This Row],[Machine]]=Table5[Machine]),Table5[Downtime]))</f>
         <v>6.8333333333333357E-2</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="27">
         <f>'Daily Performance Monitoring '!BF9</f>
         <v>9.8861111111111122E-2</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="38">
         <f>'Daily Performance Monitoring '!BG9</f>
         <v>0.37072916666666672</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="32">
         <f>'Daily Performance Monitoring '!BH9</f>
         <v>170</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="45">
         <f>Table4[[#This Row],[Product]]/Table4[[#This Row],[Total Running Hour]]/1440</f>
         <v>1.1941556617027254</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="52" t="s">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D8" s="42" cm="1">
+      <c r="D8" s="27" cm="1">
         <f t="array" ref="D8">SUM(IF((Table4[[#This Row],[Machine]]=Table5[Machine]),Table5[Downtime]))</f>
         <v>8.4999999999999964E-2</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="27">
         <f>'Daily Performance Monitoring '!BF10</f>
         <v>9.8583333333333342E-2</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="38">
         <f>'Daily Performance Monitoring '!BG10</f>
         <v>0.36968750000000006</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="32">
         <f>'Daily Performance Monitoring '!BH10</f>
         <v>171</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="45">
         <f>Table4[[#This Row],[Product]]/Table4[[#This Row],[Total Running Hour]]/1440</f>
         <v>1.2045646661031275</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="52" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D9" s="42" cm="1">
+      <c r="D9" s="27" cm="1">
         <f t="array" ref="D9">SUM(IF((Table4[[#This Row],[Machine]]=Table5[Machine]),Table5[Downtime]))</f>
         <v>0.17138888888888887</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="27">
         <f>'Daily Performance Monitoring '!BF11</f>
         <v>9.7143518518518518E-2</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="38">
         <f>'Daily Performance Monitoring '!BG11</f>
         <v>0.36428819444444444</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="32">
         <f>'Daily Performance Monitoring '!BH11</f>
         <v>173</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="45">
         <f>Table4[[#This Row],[Product]]/Table4[[#This Row],[Total Running Hour]]/1440</f>
         <v>1.2367154363055806</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="52" t="s">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D10" s="42" cm="1">
+      <c r="D10" s="27" cm="1">
         <f t="array" ref="D10">SUM(IF((Table4[[#This Row],[Machine]]=Table5[Machine]),Table5[Downtime]))</f>
         <v>0.16027777777777774</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="27">
         <f>'Daily Performance Monitoring '!BF12</f>
         <v>9.7328703703703695E-2</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="38">
         <f>'Daily Performance Monitoring '!BG12</f>
         <v>0.36498263888888888</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="32">
         <f>'Daily Performance Monitoring '!BH12</f>
         <v>166</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="45">
         <f>Table4[[#This Row],[Product]]/Table4[[#This Row],[Total Running Hour]]/1440</f>
         <v>1.1844170670218335</v>
       </c>
@@ -36565,7 +36555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02EE0E8-6B15-4D72-9A19-AADE1BB99447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02EE0E8-6B15-4D72-9A19-AADE1BB99447}">
   <dimension ref="A1:BI24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="AO1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
@@ -36867,183 +36857,183 @@
       <c r="BB2" s="23"/>
       <c r="BC2" s="24"/>
     </row>
-    <row r="3" spans="1:61" s="48" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47" t="s">
+    <row r="3" spans="1:61" s="41" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="47" t="s">
+      <c r="R3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="S3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="47" t="s">
+      <c r="T3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="47" t="s">
+      <c r="V3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="47" t="s">
+      <c r="W3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="47" t="s">
+      <c r="X3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="47" t="s">
+      <c r="Y3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" s="47" t="s">
+      <c r="Z3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="47" t="s">
+      <c r="AA3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AB3" s="47" t="s">
+      <c r="AB3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="47" t="s">
+      <c r="AC3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="47" t="s">
+      <c r="AD3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AE3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="47" t="s">
+      <c r="AF3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AG3" s="47" t="s">
+      <c r="AG3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AH3" s="47" t="s">
+      <c r="AH3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="47" t="s">
+      <c r="AI3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="47" t="s">
+      <c r="AJ3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" s="47" t="s">
+      <c r="AK3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AL3" s="47" t="s">
+      <c r="AL3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AM3" s="47" t="s">
+      <c r="AM3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AN3" s="47" t="s">
+      <c r="AN3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AO3" s="47" t="s">
+      <c r="AO3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AP3" s="47" t="s">
+      <c r="AP3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" s="47" t="s">
+      <c r="AQ3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AR3" s="47" t="s">
+      <c r="AR3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AS3" s="47" t="s">
+      <c r="AS3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AT3" s="47" t="s">
+      <c r="AT3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AU3" s="47" t="s">
+      <c r="AU3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AV3" s="47" t="s">
+      <c r="AV3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AW3" s="47" t="s">
+      <c r="AW3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AX3" s="47" t="s">
+      <c r="AX3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AY3" s="47" t="s">
+      <c r="AY3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="AZ3" s="47" t="s">
+      <c r="AZ3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="BA3" s="47" t="s">
+      <c r="BA3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="BB3" s="47" t="s">
+      <c r="BB3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="BC3" s="47" t="s">
+      <c r="BC3" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="BE3" s="60" t="s">
+      <c r="BE3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="BF3" s="61" t="s">
+      <c r="BF3" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="BG3" s="61" t="s">
+      <c r="BG3" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="BH3" s="61" t="s">
+      <c r="BH3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="BI3" s="62" t="s">
+      <c r="BI3" s="51" t="s">
         <v>41</v>
       </c>
     </row>
@@ -37240,14 +37230,14 @@
         <f t="shared" ref="BC4:BC19" si="11">BB4/BA4/24</f>
         <v>1.1111111111111109</v>
       </c>
-      <c r="BE4" s="59" t="s">
+      <c r="BE4" s="48" t="s">
         <v>3</v>
       </c>
       <c r="BF4" s="19">
         <f>E20</f>
         <v>9.8509259259259269E-2</v>
       </c>
-      <c r="BG4" s="63">
+      <c r="BG4" s="52">
         <f>AVERAGE(E4:E19)</f>
         <v>0.36940972222222224</v>
       </c>
@@ -37270,12 +37260,12 @@
       <c r="C5" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D5" s="49" cm="1">
+      <c r="D5" s="42" cm="1">
         <f t="array" ref="D5">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="E5" s="50">
-        <f t="shared" ref="E5:E19" si="12">C5-B5-D5</f>
+      <c r="E5" s="43">
+        <f t="shared" ref="E5:E18" si="12">C5-B5-D5</f>
         <v>0.37500000000000006</v>
       </c>
       <c r="F5" s="14">
@@ -37291,11 +37281,11 @@
       <c r="I5" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J5" s="49" cm="1">
+      <c r="J5" s="42" cm="1">
         <f t="array" ref="J5">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37312,11 +37302,11 @@
       <c r="O5" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P5" s="49" cm="1">
+      <c r="P5" s="42" cm="1">
         <f t="array" ref="P5">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="50">
+      <c r="Q5" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37333,11 +37323,11 @@
       <c r="U5" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V5" s="49" cm="1">
+      <c r="V5" s="42" cm="1">
         <f t="array" ref="V5">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>1.7500000000000016E-2</v>
       </c>
-      <c r="W5" s="50">
+      <c r="W5" s="43">
         <f t="shared" si="2"/>
         <v>0.35750000000000004</v>
       </c>
@@ -37354,11 +37344,11 @@
       <c r="AA5" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB5" s="49" cm="1">
+      <c r="AB5" s="42" cm="1">
         <f t="array" ref="AB5">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>2.2222222222222365E-3</v>
       </c>
-      <c r="AC5" s="50">
+      <c r="AC5" s="43">
         <f t="shared" si="3"/>
         <v>0.37277777777777782</v>
       </c>
@@ -37375,11 +37365,11 @@
       <c r="AG5" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH5" s="49" cm="1">
+      <c r="AH5" s="42" cm="1">
         <f t="array" ref="AH5">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AI5" s="50">
+      <c r="AI5" s="43">
         <f t="shared" si="5"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37396,11 +37386,11 @@
       <c r="AM5" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN5" s="49" cm="1">
+      <c r="AN5" s="42" cm="1">
         <f t="array" ref="AN5">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="50">
+      <c r="AO5" s="43">
         <f t="shared" ref="AO5:AO19" si="17">AM5-AL5-AN5</f>
         <v>0.37500000000000006</v>
       </c>
@@ -37417,11 +37407,11 @@
       <c r="AS5" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT5" s="49" cm="1">
+      <c r="AT5" s="42" cm="1">
         <f t="array" ref="AT5">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>6.3888888888888884E-2</v>
       </c>
-      <c r="AU5" s="50">
+      <c r="AU5" s="43">
         <f t="shared" si="8"/>
         <v>0.31111111111111117</v>
       </c>
@@ -37438,11 +37428,11 @@
       <c r="AY5" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ5" s="49" cm="1">
+      <c r="AZ5" s="42" cm="1">
         <f t="array" ref="AZ5">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="BA5" s="50">
+      <c r="BA5" s="43">
         <f t="shared" si="10"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37453,14 +37443,14 @@
         <f t="shared" si="11"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="BE5" s="58" t="s">
+      <c r="BE5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="BF5" s="49">
+      <c r="BF5" s="42">
         <f>K20</f>
         <v>9.9175925925925931E-2</v>
       </c>
-      <c r="BG5" s="63">
+      <c r="BG5" s="52">
         <f>AVERAGE(K4:K19)</f>
         <v>0.37190972222222224</v>
       </c>
@@ -37483,11 +37473,11 @@
       <c r="C6" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D6" s="49" cm="1">
+      <c r="D6" s="42" cm="1">
         <f t="array" ref="D6">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="43">
         <f t="shared" si="12"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37504,11 +37494,11 @@
       <c r="I6" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J6" s="49" cm="1">
+      <c r="J6" s="42" cm="1">
         <f t="array" ref="J6">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37525,11 +37515,11 @@
       <c r="O6" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P6" s="49" cm="1">
+      <c r="P6" s="42" cm="1">
         <f t="array" ref="P6">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37546,11 +37536,11 @@
       <c r="U6" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V6" s="49" cm="1">
+      <c r="V6" s="42" cm="1">
         <f t="array" ref="V6">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="W6" s="50">
+      <c r="W6" s="43">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37567,11 +37557,11 @@
       <c r="AA6" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB6" s="49" cm="1">
+      <c r="AB6" s="42" cm="1">
         <f t="array" ref="AB6">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="50">
+      <c r="AC6" s="43">
         <f t="shared" si="3"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37588,11 +37578,11 @@
       <c r="AG6" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH6" s="49" cm="1">
+      <c r="AH6" s="42" cm="1">
         <f t="array" ref="AH6">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="50">
+      <c r="AI6" s="43">
         <f t="shared" si="5"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37609,11 +37599,11 @@
       <c r="AM6" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN6" s="49" cm="1">
+      <c r="AN6" s="42" cm="1">
         <f t="array" ref="AN6">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="50">
+      <c r="AO6" s="43">
         <f t="shared" si="17"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37630,11 +37620,11 @@
       <c r="AS6" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT6" s="49" cm="1">
+      <c r="AT6" s="42" cm="1">
         <f t="array" ref="AT6">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>4.8888888888888871E-2</v>
       </c>
-      <c r="AU6" s="50">
+      <c r="AU6" s="43">
         <f t="shared" si="8"/>
         <v>0.32611111111111118</v>
       </c>
@@ -37651,11 +37641,11 @@
       <c r="AY6" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ6" s="49" cm="1">
+      <c r="AZ6" s="42" cm="1">
         <f t="array" ref="AZ6">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>4.5555555555555571E-2</v>
       </c>
-      <c r="BA6" s="50">
+      <c r="BA6" s="43">
         <f t="shared" si="10"/>
         <v>0.32944444444444448</v>
       </c>
@@ -37666,14 +37656,14 @@
         <f t="shared" si="11"/>
         <v>1.2647554806070824</v>
       </c>
-      <c r="BE6" s="58" t="s">
+      <c r="BE6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="BF6" s="49">
+      <c r="BF6" s="42">
         <f>Q20</f>
         <v>9.9652777777777798E-2</v>
       </c>
-      <c r="BG6" s="63">
+      <c r="BG6" s="52">
         <f>AVERAGE(Q4:Q19)</f>
         <v>0.37369791666666674</v>
       </c>
@@ -37696,11 +37686,11 @@
       <c r="C7" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D7" s="49" cm="1">
+      <c r="D7" s="42" cm="1">
         <f t="array" ref="D7">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="43">
         <f t="shared" si="12"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37717,11 +37707,11 @@
       <c r="I7" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J7" s="49" cm="1">
+      <c r="J7" s="42" cm="1">
         <f t="array" ref="J7">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37738,11 +37728,11 @@
       <c r="O7" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P7" s="49" cm="1">
+      <c r="P7" s="42" cm="1">
         <f t="array" ref="P7">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37759,11 +37749,11 @@
       <c r="U7" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V7" s="49" cm="1">
+      <c r="V7" s="42" cm="1">
         <f t="array" ref="V7">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="W7" s="50">
+      <c r="W7" s="43">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37780,11 +37770,11 @@
       <c r="AA7" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB7" s="49" cm="1">
+      <c r="AB7" s="42" cm="1">
         <f t="array" ref="AB7">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="50">
+      <c r="AC7" s="43">
         <f t="shared" si="3"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37801,11 +37791,11 @@
       <c r="AG7" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH7" s="49" cm="1">
+      <c r="AH7" s="42" cm="1">
         <f t="array" ref="AH7">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="50">
+      <c r="AI7" s="43">
         <f t="shared" si="5"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37822,11 +37812,11 @@
       <c r="AM7" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN7" s="49" cm="1">
+      <c r="AN7" s="42" cm="1">
         <f t="array" ref="AN7">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AO7" s="50">
+      <c r="AO7" s="43">
         <f t="shared" si="17"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37843,11 +37833,11 @@
       <c r="AS7" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT7" s="49" cm="1">
+      <c r="AT7" s="42" cm="1">
         <f t="array" ref="AT7">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>3.1944444444444442E-2</v>
       </c>
-      <c r="AU7" s="50">
+      <c r="AU7" s="43">
         <f t="shared" si="8"/>
         <v>0.34305555555555561</v>
       </c>
@@ -37864,11 +37854,11 @@
       <c r="AY7" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ7" s="49" cm="1">
+      <c r="AZ7" s="42" cm="1">
         <f t="array" ref="AZ7">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="50">
+      <c r="BA7" s="43">
         <f t="shared" si="10"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37879,14 +37869,14 @@
         <f t="shared" si="11"/>
         <v>1.1111111111111109</v>
       </c>
-      <c r="BE7" s="58" t="s">
+      <c r="BE7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="BF7" s="49">
+      <c r="BF7" s="42">
         <f>W20</f>
         <v>9.914351851851852E-2</v>
       </c>
-      <c r="BG7" s="63">
+      <c r="BG7" s="52">
         <f>AVERAGE(W4:W19)</f>
         <v>0.37178819444444444</v>
       </c>
@@ -37909,11 +37899,11 @@
       <c r="C8" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D8" s="49" cm="1">
+      <c r="D8" s="42" cm="1">
         <f t="array" ref="D8">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E8" s="43">
         <f t="shared" si="12"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37930,11 +37920,11 @@
       <c r="I8" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J8" s="49" cm="1">
+      <c r="J8" s="42" cm="1">
         <f t="array" ref="J8">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37951,11 +37941,11 @@
       <c r="O8" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P8" s="49" cm="1">
+      <c r="P8" s="42" cm="1">
         <f t="array" ref="P8">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37972,11 +37962,11 @@
       <c r="U8" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V8" s="49" cm="1">
+      <c r="V8" s="42" cm="1">
         <f t="array" ref="V8">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="W8" s="50">
+      <c r="W8" s="43">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
@@ -37993,11 +37983,11 @@
       <c r="AA8" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB8" s="49" cm="1">
+      <c r="AB8" s="42" cm="1">
         <f t="array" ref="AB8">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>3.9722222222222214E-2</v>
       </c>
-      <c r="AC8" s="50">
+      <c r="AC8" s="43">
         <f t="shared" si="3"/>
         <v>0.33527777777777784</v>
       </c>
@@ -38014,11 +38004,11 @@
       <c r="AG8" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH8" s="49" cm="1">
+      <c r="AH8" s="42" cm="1">
         <f t="array" ref="AH8">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="50">
+      <c r="AI8" s="43">
         <f t="shared" si="5"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38035,11 +38025,11 @@
       <c r="AM8" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN8" s="49" cm="1">
+      <c r="AN8" s="42" cm="1">
         <f t="array" ref="AN8">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AO8" s="50">
+      <c r="AO8" s="43">
         <f t="shared" si="17"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38056,11 +38046,11 @@
       <c r="AS8" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT8" s="49" cm="1">
+      <c r="AT8" s="42" cm="1">
         <f t="array" ref="AT8">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AU8" s="50">
+      <c r="AU8" s="43">
         <f t="shared" si="8"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38077,11 +38067,11 @@
       <c r="AY8" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ8" s="49" cm="1">
+      <c r="AZ8" s="42" cm="1">
         <f t="array" ref="AZ8">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>4.1111111111111098E-2</v>
       </c>
-      <c r="BA8" s="50">
+      <c r="BA8" s="43">
         <f t="shared" si="10"/>
         <v>0.33388888888888896</v>
       </c>
@@ -38092,14 +38082,14 @@
         <f t="shared" si="11"/>
         <v>1.2479201331114806</v>
       </c>
-      <c r="BE8" s="58" t="s">
+      <c r="BE8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="BF8" s="49">
+      <c r="BF8" s="42">
         <f>AC20</f>
         <v>9.8643518518518533E-2</v>
       </c>
-      <c r="BG8" s="63">
+      <c r="BG8" s="52">
         <f>AVERAGE(AC4:AC19)</f>
         <v>0.36991319444444448</v>
       </c>
@@ -38122,11 +38112,11 @@
       <c r="C9" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D9" s="49" cm="1">
+      <c r="D9" s="42" cm="1">
         <f t="array" ref="D9">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="43">
         <f t="shared" si="12"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38143,11 +38133,11 @@
       <c r="I9" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J9" s="49" cm="1">
+      <c r="J9" s="42" cm="1">
         <f t="array" ref="J9">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38164,11 +38154,11 @@
       <c r="O9" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P9" s="49" cm="1">
+      <c r="P9" s="42" cm="1">
         <f t="array" ref="P9">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38185,11 +38175,11 @@
       <c r="U9" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V9" s="49" cm="1">
+      <c r="V9" s="42" cm="1">
         <f t="array" ref="V9">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="W9" s="50">
+      <c r="W9" s="43">
         <f t="shared" si="2"/>
         <v>0.36500000000000005</v>
       </c>
@@ -38206,11 +38196,11 @@
       <c r="AA9" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB9" s="49" cm="1">
+      <c r="AB9" s="42" cm="1">
         <f t="array" ref="AB9">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="50">
+      <c r="AC9" s="43">
         <f t="shared" si="3"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38227,11 +38217,11 @@
       <c r="AG9" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH9" s="49" cm="1">
+      <c r="AH9" s="42" cm="1">
         <f t="array" ref="AH9">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="50">
+      <c r="AI9" s="43">
         <f t="shared" si="5"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38248,11 +38238,11 @@
       <c r="AM9" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN9" s="49" cm="1">
+      <c r="AN9" s="42" cm="1">
         <f t="array" ref="AN9">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>3.1666666666666676E-2</v>
       </c>
-      <c r="AO9" s="50">
+      <c r="AO9" s="43">
         <f t="shared" si="17"/>
         <v>0.34333333333333338</v>
       </c>
@@ -38269,11 +38259,11 @@
       <c r="AS9" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT9" s="49" cm="1">
+      <c r="AT9" s="42" cm="1">
         <f t="array" ref="AT9">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AU9" s="50">
+      <c r="AU9" s="43">
         <f t="shared" si="8"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38290,11 +38280,11 @@
       <c r="AY9" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ9" s="49" cm="1">
+      <c r="AZ9" s="42" cm="1">
         <f t="array" ref="AZ9">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="BA9" s="50">
+      <c r="BA9" s="43">
         <f t="shared" si="10"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38305,14 +38295,14 @@
         <f t="shared" si="11"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="BE9" s="58" t="s">
+      <c r="BE9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="BF9" s="49">
+      <c r="BF9" s="42">
         <f>AI20</f>
         <v>9.8861111111111122E-2</v>
       </c>
-      <c r="BG9" s="63">
+      <c r="BG9" s="52">
         <f>AVERAGE(AI4:AI19)</f>
         <v>0.37072916666666672</v>
       </c>
@@ -38335,11 +38325,11 @@
       <c r="C10" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D10" s="49" cm="1">
+      <c r="D10" s="42" cm="1">
         <f t="array" ref="D10">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="43">
         <f t="shared" si="12"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38356,11 +38346,11 @@
       <c r="I10" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J10" s="49" cm="1">
+      <c r="J10" s="42" cm="1">
         <f t="array" ref="J10">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38377,11 +38367,11 @@
       <c r="O10" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P10" s="49" cm="1">
+      <c r="P10" s="42" cm="1">
         <f t="array" ref="P10">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>1.7500000000000016E-2</v>
       </c>
-      <c r="Q10" s="50">
+      <c r="Q10" s="43">
         <f t="shared" si="1"/>
         <v>0.35750000000000004</v>
       </c>
@@ -38398,11 +38388,11 @@
       <c r="U10" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V10" s="49" cm="1">
+      <c r="V10" s="42" cm="1">
         <f t="array" ref="V10">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="W10" s="50">
+      <c r="W10" s="43">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38419,11 +38409,11 @@
       <c r="AA10" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB10" s="49" cm="1">
+      <c r="AB10" s="42" cm="1">
         <f t="array" ref="AB10">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="50">
+      <c r="AC10" s="43">
         <f t="shared" si="3"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38440,11 +38430,11 @@
       <c r="AG10" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH10" s="49" cm="1">
+      <c r="AH10" s="42" cm="1">
         <f t="array" ref="AH10">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="50">
+      <c r="AI10" s="43">
         <f t="shared" si="5"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38461,11 +38451,11 @@
       <c r="AM10" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN10" s="49" cm="1">
+      <c r="AN10" s="42" cm="1">
         <f t="array" ref="AN10">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AO10" s="50">
+      <c r="AO10" s="43">
         <f t="shared" si="17"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38482,11 +38472,11 @@
       <c r="AS10" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT10" s="49" cm="1">
+      <c r="AT10" s="42" cm="1">
         <f t="array" ref="AT10">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AU10" s="50">
+      <c r="AU10" s="43">
         <f t="shared" si="8"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38503,11 +38493,11 @@
       <c r="AY10" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ10" s="49" cm="1">
+      <c r="AZ10" s="42" cm="1">
         <f t="array" ref="AZ10">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="BA10" s="50">
+      <c r="BA10" s="43">
         <f t="shared" si="10"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38518,14 +38508,14 @@
         <f t="shared" si="11"/>
         <v>1.1111111111111109</v>
       </c>
-      <c r="BE10" s="58" t="s">
+      <c r="BE10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="BF10" s="49">
+      <c r="BF10" s="42">
         <f>AO20</f>
         <v>9.8583333333333342E-2</v>
       </c>
-      <c r="BG10" s="63">
+      <c r="BG10" s="52">
         <f>AVERAGE(AO4:AO19)</f>
         <v>0.36968750000000006</v>
       </c>
@@ -38548,11 +38538,11 @@
       <c r="C11" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D11" s="49" cm="1">
+      <c r="D11" s="42" cm="1">
         <f t="array" ref="D11">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="43">
         <f t="shared" si="12"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38569,11 +38559,11 @@
       <c r="I11" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J11" s="49" cm="1">
+      <c r="J11" s="42" cm="1">
         <f t="array" ref="J11">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38590,11 +38580,11 @@
       <c r="O11" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P11" s="49" cm="1">
+      <c r="P11" s="42" cm="1">
         <f t="array" ref="P11">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="50">
+      <c r="Q11" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38611,11 +38601,11 @@
       <c r="U11" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V11" s="49" cm="1">
+      <c r="V11" s="42" cm="1">
         <f t="array" ref="V11">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="W11" s="50">
+      <c r="W11" s="43">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38632,11 +38622,11 @@
       <c r="AA11" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB11" s="49" cm="1">
+      <c r="AB11" s="42" cm="1">
         <f t="array" ref="AB11">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>3.4166666666666679E-2</v>
       </c>
-      <c r="AC11" s="50">
+      <c r="AC11" s="43">
         <f t="shared" si="3"/>
         <v>0.34083333333333338</v>
       </c>
@@ -38653,11 +38643,11 @@
       <c r="AG11" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH11" s="49" cm="1">
+      <c r="AH11" s="42" cm="1">
         <f t="array" ref="AH11">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>1.2777777777777777E-2</v>
       </c>
-      <c r="AI11" s="50">
+      <c r="AI11" s="43">
         <f t="shared" si="5"/>
         <v>0.36222222222222228</v>
       </c>
@@ -38674,11 +38664,11 @@
       <c r="AM11" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN11" s="49" cm="1">
+      <c r="AN11" s="42" cm="1">
         <f t="array" ref="AN11">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="AO11" s="50">
+      <c r="AO11" s="43">
         <f t="shared" si="17"/>
         <v>0.35277777777777786</v>
       </c>
@@ -38695,11 +38685,11 @@
       <c r="AS11" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT11" s="49" cm="1">
+      <c r="AT11" s="42" cm="1">
         <f t="array" ref="AT11">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AU11" s="50">
+      <c r="AU11" s="43">
         <f t="shared" si="8"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38716,11 +38706,11 @@
       <c r="AY11" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ11" s="49" cm="1">
+      <c r="AZ11" s="42" cm="1">
         <f t="array" ref="AZ11">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="BA11" s="50">
+      <c r="BA11" s="43">
         <f t="shared" si="10"/>
         <v>0.35416666666666674</v>
       </c>
@@ -38731,14 +38721,14 @@
         <f t="shared" si="11"/>
         <v>1.0588235294117645</v>
       </c>
-      <c r="BE11" s="58" t="s">
+      <c r="BE11" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="BF11" s="49">
+      <c r="BF11" s="42">
         <f>AU20</f>
         <v>9.7143518518518518E-2</v>
       </c>
-      <c r="BG11" s="63">
+      <c r="BG11" s="52">
         <f>AVERAGE(AU4:AU19)</f>
         <v>0.36428819444444444</v>
       </c>
@@ -38761,11 +38751,11 @@
       <c r="C12" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D12" s="49" cm="1">
+      <c r="D12" s="42" cm="1">
         <f t="array" ref="D12">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="43">
         <f t="shared" si="12"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38782,11 +38772,11 @@
       <c r="I12" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J12" s="49" cm="1">
+      <c r="J12" s="42" cm="1">
         <f t="array" ref="J12">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38803,11 +38793,11 @@
       <c r="O12" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P12" s="49" cm="1">
+      <c r="P12" s="42" cm="1">
         <f t="array" ref="P12">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="50">
+      <c r="Q12" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38824,11 +38814,11 @@
       <c r="U12" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V12" s="49" cm="1">
+      <c r="V12" s="42" cm="1">
         <f t="array" ref="V12">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="W12" s="50">
+      <c r="W12" s="43">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38845,11 +38835,11 @@
       <c r="AA12" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB12" s="49" cm="1">
+      <c r="AB12" s="42" cm="1">
         <f t="array" ref="AB12">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="50">
+      <c r="AC12" s="43">
         <f t="shared" si="3"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38866,11 +38856,11 @@
       <c r="AG12" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH12" s="49" cm="1">
+      <c r="AH12" s="42" cm="1">
         <f t="array" ref="AH12">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="50">
+      <c r="AI12" s="43">
         <f t="shared" si="5"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38887,11 +38877,11 @@
       <c r="AM12" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN12" s="49" cm="1">
+      <c r="AN12" s="42" cm="1">
         <f t="array" ref="AN12">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>3.1111111111111089E-2</v>
       </c>
-      <c r="AO12" s="50">
+      <c r="AO12" s="43">
         <f t="shared" si="17"/>
         <v>0.34388888888888897</v>
       </c>
@@ -38908,11 +38898,11 @@
       <c r="AS12" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT12" s="49" cm="1">
+      <c r="AT12" s="42" cm="1">
         <f t="array" ref="AT12">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AU12" s="50">
+      <c r="AU12" s="43">
         <f t="shared" si="8"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38929,11 +38919,11 @@
       <c r="AY12" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ12" s="49" cm="1">
+      <c r="AZ12" s="42" cm="1">
         <f t="array" ref="AZ12">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="BA12" s="50">
+      <c r="BA12" s="43">
         <f t="shared" si="10"/>
         <v>0.37500000000000006</v>
       </c>
@@ -38944,14 +38934,14 @@
         <f t="shared" si="11"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="BE12" s="58" t="s">
+      <c r="BE12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="BF12" s="49">
+      <c r="BF12" s="42">
         <f>BA20</f>
         <v>9.7328703703703695E-2</v>
       </c>
-      <c r="BG12" s="63">
+      <c r="BG12" s="52">
         <f>AVERAGE(BA4:BA19)</f>
         <v>0.36498263888888888</v>
       </c>
@@ -38974,11 +38964,11 @@
       <c r="C13" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D13" s="49" cm="1">
+      <c r="D13" s="42" cm="1">
         <f t="array" ref="D13">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>1.9722222222222197E-2</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="43">
         <f t="shared" si="12"/>
         <v>0.35527777777777786</v>
       </c>
@@ -38995,11 +38985,11 @@
       <c r="I13" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J13" s="49" cm="1">
+      <c r="J13" s="42" cm="1">
         <f t="array" ref="J13">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39016,11 +39006,11 @@
       <c r="O13" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P13" s="49" cm="1">
+      <c r="P13" s="42" cm="1">
         <f t="array" ref="P13">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="50">
+      <c r="Q13" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39037,11 +39027,11 @@
       <c r="U13" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V13" s="49" cm="1">
+      <c r="V13" s="42" cm="1">
         <f t="array" ref="V13">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="W13" s="50">
+      <c r="W13" s="43">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39058,11 +39048,11 @@
       <c r="AA13" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB13" s="49" cm="1">
+      <c r="AB13" s="42" cm="1">
         <f t="array" ref="AB13">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="50">
+      <c r="AC13" s="43">
         <f t="shared" si="3"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39079,11 +39069,11 @@
       <c r="AG13" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH13" s="49" cm="1">
+      <c r="AH13" s="42" cm="1">
         <f t="array" ref="AH13">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="50">
+      <c r="AI13" s="43">
         <f t="shared" si="5"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39100,11 +39090,11 @@
       <c r="AM13" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN13" s="49" cm="1">
+      <c r="AN13" s="42" cm="1">
         <f t="array" ref="AN13">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AO13" s="50">
+      <c r="AO13" s="43">
         <f t="shared" si="17"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39121,11 +39111,11 @@
       <c r="AS13" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT13" s="49" cm="1">
+      <c r="AT13" s="42" cm="1">
         <f t="array" ref="AT13">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>3.6111111111111205E-3</v>
       </c>
-      <c r="AU13" s="50">
+      <c r="AU13" s="43">
         <f t="shared" si="8"/>
         <v>0.37138888888888894</v>
       </c>
@@ -39142,11 +39132,11 @@
       <c r="AY13" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ13" s="49" cm="1">
+      <c r="AZ13" s="42" cm="1">
         <f t="array" ref="AZ13">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="BA13" s="50">
+      <c r="BA13" s="43">
         <f t="shared" si="10"/>
         <v>0.36805555555555564</v>
       </c>
@@ -39168,11 +39158,11 @@
       <c r="C14" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D14" s="49" cm="1">
+      <c r="D14" s="42" cm="1">
         <f t="array" ref="D14">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="43">
         <f t="shared" si="12"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39189,11 +39179,11 @@
       <c r="I14" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J14" s="49" cm="1">
+      <c r="J14" s="42" cm="1">
         <f t="array" ref="J14">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39210,11 +39200,11 @@
       <c r="O14" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P14" s="49" cm="1">
+      <c r="P14" s="42" cm="1">
         <f t="array" ref="P14">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="50">
+      <c r="Q14" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39231,11 +39221,11 @@
       <c r="U14" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V14" s="49" cm="1">
+      <c r="V14" s="42" cm="1">
         <f t="array" ref="V14">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="W14" s="50">
+      <c r="W14" s="43">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39252,11 +39242,11 @@
       <c r="AA14" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB14" s="49" cm="1">
+      <c r="AB14" s="42" cm="1">
         <f t="array" ref="AB14">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="50">
+      <c r="AC14" s="43">
         <f t="shared" si="3"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39273,11 +39263,11 @@
       <c r="AG14" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH14" s="49" cm="1">
+      <c r="AH14" s="42" cm="1">
         <f t="array" ref="AH14">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>3.6666666666666681E-2</v>
       </c>
-      <c r="AI14" s="50">
+      <c r="AI14" s="43">
         <f t="shared" si="5"/>
         <v>0.33833333333333337</v>
       </c>
@@ -39294,11 +39284,11 @@
       <c r="AM14" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN14" s="49" cm="1">
+      <c r="AN14" s="42" cm="1">
         <f t="array" ref="AN14">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AO14" s="50">
+      <c r="AO14" s="43">
         <f t="shared" si="17"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39315,11 +39305,11 @@
       <c r="AS14" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT14" s="49" cm="1">
+      <c r="AT14" s="42" cm="1">
         <f t="array" ref="AT14">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AU14" s="50">
+      <c r="AU14" s="43">
         <f t="shared" si="8"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39336,11 +39326,11 @@
       <c r="AY14" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ14" s="49" cm="1">
+      <c r="AZ14" s="42" cm="1">
         <f t="array" ref="AZ14">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>3.6111111111111205E-3</v>
       </c>
-      <c r="BA14" s="50">
+      <c r="BA14" s="43">
         <f t="shared" si="10"/>
         <v>0.37138888888888894</v>
       </c>
@@ -39362,11 +39352,11 @@
       <c r="C15" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D15" s="49" cm="1">
+      <c r="D15" s="42" cm="1">
         <f t="array" ref="D15">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>4.0833333333333333E-2</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="43">
         <f t="shared" si="12"/>
         <v>0.33416666666666672</v>
       </c>
@@ -39383,11 +39373,11 @@
       <c r="I15" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J15" s="49" cm="1">
+      <c r="J15" s="42" cm="1">
         <f t="array" ref="J15">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39404,11 +39394,11 @@
       <c r="O15" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P15" s="49" cm="1">
+      <c r="P15" s="42" cm="1">
         <f t="array" ref="P15">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="50">
+      <c r="Q15" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39425,11 +39415,11 @@
       <c r="U15" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V15" s="49" cm="1">
+      <c r="V15" s="42" cm="1">
         <f t="array" ref="V15">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="W15" s="50">
+      <c r="W15" s="43">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39446,11 +39436,11 @@
       <c r="AA15" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB15" s="49" cm="1">
+      <c r="AB15" s="42" cm="1">
         <f t="array" ref="AB15">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="50">
+      <c r="AC15" s="43">
         <f t="shared" si="3"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39467,11 +39457,11 @@
       <c r="AG15" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH15" s="49" cm="1">
+      <c r="AH15" s="42" cm="1">
         <f t="array" ref="AH15">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="50">
+      <c r="AI15" s="43">
         <f t="shared" si="5"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39488,11 +39478,11 @@
       <c r="AM15" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN15" s="49" cm="1">
+      <c r="AN15" s="42" cm="1">
         <f t="array" ref="AN15">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AO15" s="50">
+      <c r="AO15" s="43">
         <f t="shared" si="17"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39509,11 +39499,11 @@
       <c r="AS15" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT15" s="49" cm="1">
+      <c r="AT15" s="42" cm="1">
         <f t="array" ref="AT15">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AU15" s="50">
+      <c r="AU15" s="43">
         <f t="shared" si="8"/>
         <v>0.36500000000000005</v>
       </c>
@@ -39530,11 +39520,11 @@
       <c r="AY15" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ15" s="49" cm="1">
+      <c r="AZ15" s="42" cm="1">
         <f t="array" ref="AZ15">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="BA15" s="50">
+      <c r="BA15" s="43">
         <f t="shared" si="10"/>
         <v>0.36111111111111116</v>
       </c>
@@ -39556,11 +39546,11 @@
       <c r="C16" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D16" s="49" cm="1">
+      <c r="D16" s="42" cm="1">
         <f t="array" ref="D16">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="43">
         <f t="shared" si="12"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39577,11 +39567,11 @@
       <c r="I16" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J16" s="49" cm="1">
+      <c r="J16" s="42" cm="1">
         <f t="array" ref="J16">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39598,11 +39588,11 @@
       <c r="O16" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P16" s="49" cm="1">
+      <c r="P16" s="42" cm="1">
         <f t="array" ref="P16">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="50">
+      <c r="Q16" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39619,11 +39609,11 @@
       <c r="U16" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V16" s="49" cm="1">
+      <c r="V16" s="42" cm="1">
         <f t="array" ref="V16">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="W16" s="50">
+      <c r="W16" s="43">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39640,11 +39630,11 @@
       <c r="AA16" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB16" s="49" cm="1">
+      <c r="AB16" s="42" cm="1">
         <f t="array" ref="AB16">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>5.2777777777777701E-3</v>
       </c>
-      <c r="AC16" s="50">
+      <c r="AC16" s="43">
         <f t="shared" si="3"/>
         <v>0.36972222222222229</v>
       </c>
@@ -39661,11 +39651,11 @@
       <c r="AG16" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH16" s="49" cm="1">
+      <c r="AH16" s="42" cm="1">
         <f t="array" ref="AH16">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="50">
+      <c r="AI16" s="43">
         <f t="shared" si="5"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39682,11 +39672,11 @@
       <c r="AM16" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN16" s="49" cm="1">
+      <c r="AN16" s="42" cm="1">
         <f t="array" ref="AN16">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AO16" s="50">
+      <c r="AO16" s="43">
         <f t="shared" si="17"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39703,11 +39693,11 @@
       <c r="AS16" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT16" s="49" cm="1">
+      <c r="AT16" s="42" cm="1">
         <f t="array" ref="AT16">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AU16" s="50">
+      <c r="AU16" s="43">
         <f t="shared" si="8"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39724,11 +39714,11 @@
       <c r="AY16" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ16" s="49" cm="1">
+      <c r="AZ16" s="42" cm="1">
         <f t="array" ref="AZ16">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="BA16" s="50">
+      <c r="BA16" s="43">
         <f t="shared" si="10"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39750,11 +39740,11 @@
       <c r="C17" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D17" s="49" cm="1">
+      <c r="D17" s="42" cm="1">
         <f t="array" ref="D17">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>8.055555555555538E-3</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="43">
         <f t="shared" si="12"/>
         <v>0.36694444444444452</v>
       </c>
@@ -39771,11 +39761,11 @@
       <c r="I17" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J17" s="49" cm="1">
+      <c r="J17" s="42" cm="1">
         <f t="array" ref="J17">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K17" s="50">
+      <c r="K17" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39792,11 +39782,11 @@
       <c r="O17" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P17" s="49" cm="1">
+      <c r="P17" s="42" cm="1">
         <f t="array" ref="P17">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="50">
+      <c r="Q17" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39813,11 +39803,11 @@
       <c r="U17" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V17" s="49" cm="1">
+      <c r="V17" s="42" cm="1">
         <f t="array" ref="V17">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="W17" s="50">
+      <c r="W17" s="43">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39834,11 +39824,11 @@
       <c r="AA17" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB17" s="49" cm="1">
+      <c r="AB17" s="42" cm="1">
         <f t="array" ref="AB17">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="50">
+      <c r="AC17" s="43">
         <f t="shared" si="3"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39855,11 +39845,11 @@
       <c r="AG17" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH17" s="49" cm="1">
+      <c r="AH17" s="42" cm="1">
         <f t="array" ref="AH17">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>1.8888888888888899E-2</v>
       </c>
-      <c r="AI17" s="50">
+      <c r="AI17" s="43">
         <f t="shared" si="5"/>
         <v>0.35611111111111116</v>
       </c>
@@ -39876,11 +39866,11 @@
       <c r="AM17" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN17" s="49" cm="1">
+      <c r="AN17" s="42" cm="1">
         <f t="array" ref="AN17">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AO17" s="50">
+      <c r="AO17" s="43">
         <f t="shared" si="17"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39897,11 +39887,11 @@
       <c r="AS17" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT17" s="49" cm="1">
+      <c r="AT17" s="42" cm="1">
         <f t="array" ref="AT17">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AU17" s="50">
+      <c r="AU17" s="43">
         <f t="shared" si="8"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39918,11 +39908,11 @@
       <c r="AY17" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ17" s="49" cm="1">
+      <c r="AZ17" s="42" cm="1">
         <f t="array" ref="AZ17">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="BA17" s="50">
+      <c r="BA17" s="43">
         <f t="shared" si="10"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39944,11 +39934,11 @@
       <c r="C18" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D18" s="49" cm="1">
+      <c r="D18" s="42" cm="1">
         <f t="array" ref="D18">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="43">
         <f t="shared" si="12"/>
         <v>0.37500000000000006</v>
       </c>
@@ -39965,11 +39955,11 @@
       <c r="I18" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J18" s="49" cm="1">
+      <c r="J18" s="42" cm="1">
         <f t="array" ref="J18">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>3.5555555555555562E-2</v>
       </c>
-      <c r="K18" s="50">
+      <c r="K18" s="43">
         <f t="shared" si="0"/>
         <v>0.33944444444444449</v>
       </c>
@@ -39986,11 +39976,11 @@
       <c r="O18" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P18" s="49" cm="1">
+      <c r="P18" s="42" cm="1">
         <f t="array" ref="P18">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="43">
         <f t="shared" si="1"/>
         <v>0.37500000000000006</v>
       </c>
@@ -40007,11 +39997,11 @@
       <c r="U18" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V18" s="49" cm="1">
+      <c r="V18" s="42" cm="1">
         <f t="array" ref="V18">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>2.3888888888888904E-2</v>
       </c>
-      <c r="W18" s="50">
+      <c r="W18" s="43">
         <f t="shared" si="2"/>
         <v>0.35111111111111115</v>
       </c>
@@ -40028,11 +40018,11 @@
       <c r="AA18" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB18" s="49" cm="1">
+      <c r="AB18" s="42" cm="1">
         <f t="array" ref="AB18">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="50">
+      <c r="AC18" s="43">
         <f t="shared" si="3"/>
         <v>0.37500000000000006</v>
       </c>
@@ -40049,11 +40039,11 @@
       <c r="AG18" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH18" s="49" cm="1">
+      <c r="AH18" s="42" cm="1">
         <f t="array" ref="AH18">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AI18" s="50">
+      <c r="AI18" s="43">
         <f t="shared" si="5"/>
         <v>0.37500000000000006</v>
       </c>
@@ -40070,11 +40060,11 @@
       <c r="AM18" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN18" s="49" cm="1">
+      <c r="AN18" s="42" cm="1">
         <f t="array" ref="AN18">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AO18" s="50">
+      <c r="AO18" s="43">
         <f t="shared" si="17"/>
         <v>0.37500000000000006</v>
       </c>
@@ -40091,11 +40081,11 @@
       <c r="AS18" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT18" s="49" cm="1">
+      <c r="AT18" s="42" cm="1">
         <f t="array" ref="AT18">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>1.3055555555555542E-2</v>
       </c>
-      <c r="AU18" s="50">
+      <c r="AU18" s="43">
         <f t="shared" si="8"/>
         <v>0.36194444444444451</v>
       </c>
@@ -40112,11 +40102,11 @@
       <c r="AY18" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ18" s="49" cm="1">
+      <c r="AZ18" s="42" cm="1">
         <f t="array" ref="AZ18">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>2.8333333333333321E-2</v>
       </c>
-      <c r="BA18" s="50">
+      <c r="BA18" s="43">
         <f t="shared" si="10"/>
         <v>0.34666666666666673</v>
       </c>
@@ -40138,11 +40128,11 @@
       <c r="C19" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D19" s="49" cm="1">
+      <c r="D19" s="42" cm="1">
         <f t="array" ref="D19">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$B$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="43">
         <f>C19-B19-D19</f>
         <v>0.37500000000000006</v>
       </c>
@@ -40159,11 +40149,11 @@
       <c r="I19" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="J19" s="49" cm="1">
+      <c r="J19" s="42" cm="1">
         <f t="array" ref="J19">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$H$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="K19" s="50">
+      <c r="K19" s="43">
         <f t="shared" si="0"/>
         <v>0.37500000000000006</v>
       </c>
@@ -40180,11 +40170,11 @@
       <c r="O19" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="P19" s="49" cm="1">
+      <c r="P19" s="42" cm="1">
         <f t="array" ref="P19">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$N$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>3.3333333333333548E-3</v>
       </c>
-      <c r="Q19" s="50">
+      <c r="Q19" s="43">
         <f t="shared" si="1"/>
         <v>0.3716666666666667</v>
       </c>
@@ -40201,11 +40191,11 @@
       <c r="U19" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="V19" s="49" cm="1">
+      <c r="V19" s="42" cm="1">
         <f t="array" ref="V19">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$T$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="W19" s="50">
+      <c r="W19" s="43">
         <f t="shared" si="2"/>
         <v>0.37500000000000006</v>
       </c>
@@ -40222,11 +40212,11 @@
       <c r="AA19" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AB19" s="49" cm="1">
+      <c r="AB19" s="42" cm="1">
         <f t="array" ref="AB19">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$Z$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AC19" s="50">
+      <c r="AC19" s="43">
         <f t="shared" si="3"/>
         <v>0.37500000000000006</v>
       </c>
@@ -40243,11 +40233,11 @@
       <c r="AG19" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AH19" s="49" cm="1">
+      <c r="AH19" s="42" cm="1">
         <f t="array" ref="AH19">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AF$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AI19" s="50">
+      <c r="AI19" s="43">
         <f t="shared" si="5"/>
         <v>0.37500000000000006</v>
       </c>
@@ -40264,11 +40254,11 @@
       <c r="AM19" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AN19" s="49" cm="1">
+      <c r="AN19" s="42" cm="1">
         <f t="array" ref="AN19">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AL$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AO19" s="50">
+      <c r="AO19" s="43">
         <f t="shared" si="17"/>
         <v>0.37500000000000006</v>
       </c>
@@ -40285,11 +40275,11 @@
       <c r="AS19" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AT19" s="49" cm="1">
+      <c r="AT19" s="42" cm="1">
         <f t="array" ref="AT19">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AR$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="AU19" s="50">
+      <c r="AU19" s="43">
         <f t="shared" si="8"/>
         <v>0.37500000000000006</v>
       </c>
@@ -40306,11 +40296,11 @@
       <c r="AY19" s="9">
         <v>0.70833333333333337</v>
       </c>
-      <c r="AZ19" s="49" cm="1">
+      <c r="AZ19" s="42" cm="1">
         <f t="array" ref="AZ19">SUM(IF((Table3[[#This Row],[TanggaK Produksi]]=Table5[Date])*('Daily Performance Monitoring '!$AX$2=Table5[Machine]),Table5[Downtime]))</f>
         <v>0</v>
       </c>
-      <c r="BA19" s="50">
+      <c r="BA19" s="43">
         <f t="shared" si="10"/>
         <v>0.37500000000000006</v>
       </c>
@@ -40323,16 +40313,16 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="44" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="49">
+      <c r="D20" s="42">
         <f>SUM(D4:D19)</f>
         <v>8.9444444444444438E-2</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="42">
         <f>SUM(E4:E19)/60</f>
         <v>9.8509259259259269E-2</v>
       </c>
@@ -40346,11 +40336,11 @@
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="49">
+      <c r="J20" s="42">
         <f>SUM(J4:J19)</f>
         <v>4.9444444444444458E-2</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="42">
         <f>SUM(K4:K19)/60</f>
         <v>9.9175925925925931E-2</v>
       </c>
@@ -40364,11 +40354,11 @@
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="9"/>
-      <c r="P20" s="49">
+      <c r="P20" s="42">
         <f>SUM(P4:P19)</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="Q20" s="49">
+      <c r="Q20" s="42">
         <f>SUM(Q4:Q19)/60</f>
         <v>9.9652777777777798E-2</v>
       </c>
@@ -40382,11 +40372,11 @@
       </c>
       <c r="T20" s="8"/>
       <c r="U20" s="9"/>
-      <c r="V20" s="49">
+      <c r="V20" s="42">
         <f>SUM(V4:V19)</f>
         <v>5.1388888888888928E-2</v>
       </c>
-      <c r="W20" s="49">
+      <c r="W20" s="42">
         <f>SUM(W4:W19)/60</f>
         <v>9.914351851851852E-2</v>
       </c>
@@ -40400,11 +40390,11 @@
       </c>
       <c r="Z20" s="8"/>
       <c r="AA20" s="9"/>
-      <c r="AB20" s="49">
+      <c r="AB20" s="42">
         <f>SUM(AB4:AB19)</f>
         <v>8.1388888888888899E-2</v>
       </c>
-      <c r="AC20" s="49">
+      <c r="AC20" s="42">
         <f>SUM(AC4:AC19)/60</f>
         <v>9.8643518518518533E-2</v>
       </c>
@@ -40418,11 +40408,11 @@
       </c>
       <c r="AF20" s="8"/>
       <c r="AG20" s="9"/>
-      <c r="AH20" s="49">
+      <c r="AH20" s="42">
         <f>SUM(AH4:AH19)</f>
         <v>6.8333333333333357E-2</v>
       </c>
-      <c r="AI20" s="49">
+      <c r="AI20" s="42">
         <f>SUM(AI4:AI19)/60</f>
         <v>9.8861111111111122E-2</v>
       </c>
@@ -40436,11 +40426,11 @@
       </c>
       <c r="AL20" s="8"/>
       <c r="AM20" s="9"/>
-      <c r="AN20" s="49">
+      <c r="AN20" s="42">
         <f>SUM(AN4:AN19)</f>
         <v>8.4999999999999964E-2</v>
       </c>
-      <c r="AO20" s="49">
+      <c r="AO20" s="42">
         <f>SUM(AO4:AO19)/60</f>
         <v>9.8583333333333342E-2</v>
       </c>
@@ -40454,11 +40444,11 @@
       </c>
       <c r="AR20" s="8"/>
       <c r="AS20" s="9"/>
-      <c r="AT20" s="49">
+      <c r="AT20" s="42">
         <f>SUM(AT4:AT19)</f>
         <v>0.17138888888888887</v>
       </c>
-      <c r="AU20" s="49">
+      <c r="AU20" s="42">
         <f>SUM(AU4:AU19)/60</f>
         <v>9.7143518518518518E-2</v>
       </c>
@@ -40472,11 +40462,11 @@
       </c>
       <c r="AX20" s="8"/>
       <c r="AY20" s="9"/>
-      <c r="AZ20" s="49">
+      <c r="AZ20" s="42">
         <f>SUM(AZ4:AZ19)</f>
         <v>0.16027777777777774</v>
       </c>
-      <c r="BA20" s="49">
+      <c r="BA20" s="42">
         <f>SUM(BA4:BA19)/60</f>
         <v>9.7328703703703695E-2</v>
       </c>
@@ -40490,118 +40480,100 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="43"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="43"/>
-      <c r="AP21" s="44"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="40"/>
-      <c r="AS21" s="41"/>
-      <c r="AT21" s="42"/>
-      <c r="AU21" s="43"/>
-      <c r="AV21" s="44"/>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="41"/>
-      <c r="AZ21" s="42"/>
-      <c r="BA21" s="43"/>
-      <c r="BB21" s="44"/>
-      <c r="BC21" s="45"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="3"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="3"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="3"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="3"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="3"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="3"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="3"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="32"/>
+      <c r="BC21" s="3"/>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="43"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="43"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="40"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="42"/>
-      <c r="AU22" s="43"/>
-      <c r="AV22" s="44"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="40"/>
-      <c r="AY22" s="41"/>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="43"/>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="45"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="3"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="3"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="3"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="3"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="38"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="3"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="3"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="3"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="38"/>
+      <c r="BB22" s="32"/>
+      <c r="BC22" s="3"/>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
@@ -40610,9 +40582,8 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -40699,7 +40670,7 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" ref="G3:G66" si="0">F3-E3</f>
+        <f t="shared" ref="G3:G38" si="0">F3-E3</f>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H3" s="1"/>
@@ -40712,7 +40683,7 @@
       <c r="B4" s="4">
         <v>45901</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
@@ -40732,28 +40703,28 @@
       <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="36">
         <v>2</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="33">
         <v>2</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="33">
+      <c r="M4" s="32">
         <v>126</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="35">
         <f>M4/3600</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="32">
         <v>3</v>
       </c>
       <c r="R4" t="str" cm="1">
         <f t="array" ref="R4">_xlfn.IFS(Q4=1,"Jarum patah",Q4=2,"Bundet bawah",Q4=3,"Bundet atas",Q4=4,"Benang putus",Q4=5,"Sensor lepas",Q4=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U4" s="34" t="str">
+      <c r="U4" s="33" t="str">
         <f>_xlfn.CONCAT(I4,J4)</f>
         <v>BRDR2</v>
       </c>
@@ -40762,7 +40733,7 @@
       <c r="B5" s="4">
         <v>45902</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
@@ -40783,28 +40754,28 @@
       <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="36">
         <v>4</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="33">
         <v>4</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="33">
+      <c r="M5" s="32">
         <v>63</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="35">
         <f t="shared" ref="N5:N38" si="1">M5/3600</f>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="32">
         <v>3</v>
       </c>
       <c r="R5" t="str" cm="1">
         <f t="array" ref="R5">_xlfn.IFS(Q5=1,"Jarum patah",Q5=2,"Bundet bawah",Q5=3,"Bundet atas",Q5=4,"Benang putus",Q5=5,"Sensor lepas",Q5=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U5" s="34" t="str">
+      <c r="U5" s="33" t="str">
         <f t="shared" ref="U5:U38" si="2">_xlfn.CONCAT(I5,J5)</f>
         <v>BRDR4</v>
       </c>
@@ -40813,7 +40784,7 @@
       <c r="B6" s="4">
         <v>45902</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
@@ -40834,28 +40805,28 @@
       <c r="I6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="36">
         <v>8</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="33">
         <v>8</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="33">
+      <c r="M6" s="32">
         <v>107</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="35">
         <f t="shared" si="1"/>
         <v>2.9722222222222223E-2</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="32">
         <v>4</v>
       </c>
       <c r="R6" t="str" cm="1">
         <f t="array" ref="R6">_xlfn.IFS(Q6=1,"Jarum patah",Q6=2,"Bundet bawah",Q6=3,"Bundet atas",Q6=4,"Benang putus",Q6=5,"Sensor lepas",Q6=6,"Mesin mati")</f>
         <v>Benang putus</v>
       </c>
-      <c r="U6" s="34" t="str">
+      <c r="U6" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR8</v>
       </c>
@@ -40864,7 +40835,7 @@
       <c r="B7" s="4">
         <v>45902</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
@@ -40885,28 +40856,28 @@
       <c r="I7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="36">
         <v>8</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="33">
         <v>8</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="33">
+      <c r="M7" s="32">
         <v>123</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="35">
         <f t="shared" si="1"/>
         <v>3.4166666666666665E-2</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="32">
         <v>6</v>
       </c>
       <c r="R7" t="str" cm="1">
         <f t="array" ref="R7">_xlfn.IFS(Q7=1,"Jarum patah",Q7=2,"Bundet bawah",Q7=3,"Bundet atas",Q7=4,"Benang putus",Q7=5,"Sensor lepas",Q7=6,"Mesin mati")</f>
         <v>Mesin mati</v>
       </c>
-      <c r="U7" s="34" t="str">
+      <c r="U7" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR8</v>
       </c>
@@ -40915,7 +40886,7 @@
       <c r="B8" s="4">
         <v>45902</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
@@ -40936,28 +40907,28 @@
       <c r="I8" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <v>5</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="33">
         <v>5</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="33">
+      <c r="M8" s="32">
         <v>8</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="35">
         <f t="shared" si="1"/>
         <v>2.2222222222222222E-3</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="32">
         <v>1</v>
       </c>
       <c r="R8" t="str" cm="1">
         <f t="array" ref="R8">_xlfn.IFS(Q8=1,"Jarum patah",Q8=2,"Bundet bawah",Q8=3,"Bundet atas",Q8=4,"Benang putus",Q8=5,"Sensor lepas",Q8=6,"Mesin mati")</f>
         <v>Jarum patah</v>
       </c>
-      <c r="U8" s="34" t="str">
+      <c r="U8" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR5</v>
       </c>
@@ -40966,7 +40937,7 @@
       <c r="B9" s="4">
         <v>45903</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
@@ -40987,28 +40958,28 @@
       <c r="I9" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <v>8</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="33">
         <v>8</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="33">
+      <c r="M9" s="32">
         <v>176</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="35">
         <f t="shared" si="1"/>
         <v>4.8888888888888891E-2</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="32">
         <v>6</v>
       </c>
       <c r="R9" t="str" cm="1">
         <f t="array" ref="R9">_xlfn.IFS(Q9=1,"Jarum patah",Q9=2,"Bundet bawah",Q9=3,"Bundet atas",Q9=4,"Benang putus",Q9=5,"Sensor lepas",Q9=6,"Mesin mati")</f>
         <v>Mesin mati</v>
       </c>
-      <c r="U9" s="34" t="str">
+      <c r="U9" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR8</v>
       </c>
@@ -41017,7 +40988,7 @@
       <c r="B10" s="4">
         <v>45903</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
@@ -41038,28 +41009,28 @@
       <c r="I10" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="36">
         <v>9</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="33">
         <v>9</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="33">
+      <c r="M10" s="32">
         <v>164</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="35">
         <f t="shared" si="1"/>
         <v>4.5555555555555557E-2</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="32">
         <v>4</v>
       </c>
       <c r="R10" t="str" cm="1">
         <f t="array" ref="R10">_xlfn.IFS(Q10=1,"Jarum patah",Q10=2,"Bundet bawah",Q10=3,"Bundet atas",Q10=4,"Benang putus",Q10=5,"Sensor lepas",Q10=6,"Mesin mati")</f>
         <v>Benang putus</v>
       </c>
-      <c r="U10" s="34" t="str">
+      <c r="U10" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR9</v>
       </c>
@@ -41068,7 +41039,7 @@
       <c r="B11" s="4">
         <v>45904</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
@@ -41089,28 +41060,28 @@
       <c r="I11" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <v>8</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="33">
         <v>8</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="33">
+      <c r="M11" s="32">
         <v>115</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="35">
         <f t="shared" si="1"/>
         <v>3.1944444444444442E-2</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="32">
         <v>3</v>
       </c>
       <c r="R11" t="str" cm="1">
         <f t="array" ref="R11">_xlfn.IFS(Q11=1,"Jarum patah",Q11=2,"Bundet bawah",Q11=3,"Bundet atas",Q11=4,"Benang putus",Q11=5,"Sensor lepas",Q11=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U11" s="34" t="str">
+      <c r="U11" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR8</v>
       </c>
@@ -41119,7 +41090,7 @@
       <c r="B12" s="4">
         <v>45905</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
@@ -41140,28 +41111,28 @@
       <c r="I12" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="36">
         <v>9</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="33">
         <v>9</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="33">
+      <c r="M12" s="32">
         <v>148</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="35">
         <f t="shared" si="1"/>
         <v>4.1111111111111112E-2</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="32">
         <v>6</v>
       </c>
       <c r="R12" t="str" cm="1">
         <f t="array" ref="R12">_xlfn.IFS(Q12=1,"Jarum patah",Q12=2,"Bundet bawah",Q12=3,"Bundet atas",Q12=4,"Benang putus",Q12=5,"Sensor lepas",Q12=6,"Mesin mati")</f>
         <v>Mesin mati</v>
       </c>
-      <c r="U12" s="34" t="str">
+      <c r="U12" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR9</v>
       </c>
@@ -41170,7 +41141,7 @@
       <c r="B13" s="4">
         <v>45905</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
@@ -41191,28 +41162,28 @@
       <c r="I13" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <v>5</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="33">
         <v>5</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="33">
+      <c r="M13" s="32">
         <v>56</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="35">
         <f t="shared" si="1"/>
         <v>1.5555555555555555E-2</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="32">
         <v>3</v>
       </c>
       <c r="R13" t="str" cm="1">
         <f t="array" ref="R13">_xlfn.IFS(Q13=1,"Jarum patah",Q13=2,"Bundet bawah",Q13=3,"Bundet atas",Q13=4,"Benang putus",Q13=5,"Sensor lepas",Q13=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U13" s="34" t="str">
+      <c r="U13" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR5</v>
       </c>
@@ -41221,7 +41192,7 @@
       <c r="B14" s="4">
         <v>45905</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
@@ -41242,28 +41213,28 @@
       <c r="I14" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <v>5</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="33">
         <v>5</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="33">
+      <c r="M14" s="32">
         <v>87</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="35">
         <f t="shared" si="1"/>
         <v>2.4166666666666666E-2</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="32">
         <v>5</v>
       </c>
       <c r="R14" t="str" cm="1">
         <f t="array" ref="R14">_xlfn.IFS(Q14=1,"Jarum patah",Q14=2,"Bundet bawah",Q14=3,"Bundet atas",Q14=4,"Benang putus",Q14=5,"Sensor lepas",Q14=6,"Mesin mati")</f>
         <v>Sensor lepas</v>
       </c>
-      <c r="U14" s="34" t="str">
+      <c r="U14" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR5</v>
       </c>
@@ -41272,7 +41243,7 @@
       <c r="B15" s="4">
         <v>45906</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
@@ -41293,28 +41264,28 @@
       <c r="I15" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <v>4</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="33">
         <v>4</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="33">
+      <c r="M15" s="32">
         <v>36</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="35">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="32">
         <v>2</v>
       </c>
       <c r="R15" t="str" cm="1">
         <f t="array" ref="R15">_xlfn.IFS(Q15=1,"Jarum patah",Q15=2,"Bundet bawah",Q15=3,"Bundet atas",Q15=4,"Benang putus",Q15=5,"Sensor lepas",Q15=6,"Mesin mati")</f>
         <v>Bundet bawah</v>
       </c>
-      <c r="U15" s="34" t="str">
+      <c r="U15" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR4</v>
       </c>
@@ -41323,7 +41294,7 @@
       <c r="B16" s="4">
         <v>45906</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
@@ -41344,28 +41315,28 @@
       <c r="I16" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="36">
         <v>7</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="33">
         <v>7</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="33">
+      <c r="M16" s="32">
         <v>114</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="35">
         <f t="shared" si="1"/>
         <v>3.1666666666666669E-2</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="Q16" s="32">
         <v>6</v>
       </c>
       <c r="R16" t="str" cm="1">
         <f t="array" ref="R16">_xlfn.IFS(Q16=1,"Jarum patah",Q16=2,"Bundet bawah",Q16=3,"Bundet atas",Q16=4,"Benang putus",Q16=5,"Sensor lepas",Q16=6,"Mesin mati")</f>
         <v>Mesin mati</v>
       </c>
-      <c r="U16" s="34" t="str">
+      <c r="U16" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR7</v>
       </c>
@@ -41374,7 +41345,7 @@
       <c r="B17" s="4">
         <v>45908</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
@@ -41395,28 +41366,28 @@
       <c r="I17" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="36">
         <v>3</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="33">
         <v>3</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="33">
+      <c r="M17" s="32">
         <v>63</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="35">
         <f t="shared" si="1"/>
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="32">
         <v>3</v>
       </c>
       <c r="R17" t="str" cm="1">
         <f t="array" ref="R17">_xlfn.IFS(Q17=1,"Jarum patah",Q17=2,"Bundet bawah",Q17=3,"Bundet atas",Q17=4,"Benang putus",Q17=5,"Sensor lepas",Q17=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U17" s="34" t="str">
+      <c r="U17" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR3</v>
       </c>
@@ -41425,7 +41396,7 @@
       <c r="B18" s="4">
         <v>45909</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
@@ -41446,28 +41417,28 @@
       <c r="I18" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="36">
         <v>5</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="33">
         <v>5</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="33">
+      <c r="M18" s="32">
         <v>123</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="35">
         <f t="shared" si="1"/>
         <v>3.4166666666666665E-2</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="32">
         <v>2</v>
       </c>
       <c r="R18" t="str" cm="1">
         <f t="array" ref="R18">_xlfn.IFS(Q18=1,"Jarum patah",Q18=2,"Bundet bawah",Q18=3,"Bundet atas",Q18=4,"Benang putus",Q18=5,"Sensor lepas",Q18=6,"Mesin mati")</f>
         <v>Bundet bawah</v>
       </c>
-      <c r="U18" s="34" t="str">
+      <c r="U18" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR5</v>
       </c>
@@ -41476,7 +41447,7 @@
       <c r="B19" s="4">
         <v>45909</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
@@ -41496,27 +41467,27 @@
       <c r="I19" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="36">
         <v>9</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="33">
         <v>9</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="32">
         <v>75</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="35">
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="32">
         <v>4</v>
       </c>
       <c r="R19" t="str" cm="1">
         <f t="array" ref="R19">_xlfn.IFS(Q19=1,"Jarum patah",Q19=2,"Bundet bawah",Q19=3,"Bundet atas",Q19=4,"Benang putus",Q19=5,"Sensor lepas",Q19=6,"Mesin mati")</f>
         <v>Benang putus</v>
       </c>
-      <c r="U19" s="34" t="str">
+      <c r="U19" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR9</v>
       </c>
@@ -41525,7 +41496,7 @@
       <c r="B20" s="4">
         <v>45909</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
@@ -41545,27 +41516,27 @@
       <c r="I20" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="36">
         <v>6</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="33">
         <v>6</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="32">
         <v>46</v>
       </c>
-      <c r="N20" s="36">
+      <c r="N20" s="35">
         <f t="shared" si="1"/>
         <v>1.2777777777777779E-2</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="32">
         <v>2</v>
       </c>
       <c r="R20" t="str" cm="1">
         <f t="array" ref="R20">_xlfn.IFS(Q20=1,"Jarum patah",Q20=2,"Bundet bawah",Q20=3,"Bundet atas",Q20=4,"Benang putus",Q20=5,"Sensor lepas",Q20=6,"Mesin mati")</f>
         <v>Bundet bawah</v>
       </c>
-      <c r="U20" s="34" t="str">
+      <c r="U20" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR6</v>
       </c>
@@ -41574,7 +41545,7 @@
       <c r="B21" s="4">
         <v>45909</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
@@ -41594,27 +41565,27 @@
       <c r="I21" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="36">
         <v>7</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="33">
         <v>7</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="32">
         <v>80</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="35">
         <f t="shared" si="1"/>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="Q21" s="32">
         <v>3</v>
       </c>
       <c r="R21" t="str" cm="1">
         <f t="array" ref="R21">_xlfn.IFS(Q21=1,"Jarum patah",Q21=2,"Bundet bawah",Q21=3,"Bundet atas",Q21=4,"Benang putus",Q21=5,"Sensor lepas",Q21=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U21" s="34" t="str">
+      <c r="U21" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR7</v>
       </c>
@@ -41623,7 +41594,7 @@
       <c r="B22" s="4">
         <v>45910</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
@@ -41643,27 +41614,27 @@
       <c r="I22" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="36">
         <v>7</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="33">
         <v>7</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="32">
         <v>112</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="35">
         <f t="shared" si="1"/>
         <v>3.111111111111111E-2</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="Q22" s="32">
         <v>6</v>
       </c>
       <c r="R22" t="str" cm="1">
         <f t="array" ref="R22">_xlfn.IFS(Q22=1,"Jarum patah",Q22=2,"Bundet bawah",Q22=3,"Bundet atas",Q22=4,"Benang putus",Q22=5,"Sensor lepas",Q22=6,"Mesin mati")</f>
         <v>Mesin mati</v>
       </c>
-      <c r="U22" s="34" t="str">
+      <c r="U22" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR7</v>
       </c>
@@ -41672,7 +41643,7 @@
       <c r="B23" s="4">
         <v>45911</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
@@ -41692,27 +41663,27 @@
       <c r="I23" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="36">
         <v>9</v>
       </c>
-      <c r="K23" s="34">
+      <c r="K23" s="33">
         <v>9</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="32">
         <v>25</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="35">
         <f t="shared" si="1"/>
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="Q23" s="32">
         <v>3</v>
       </c>
       <c r="R23" t="str" cm="1">
         <f t="array" ref="R23">_xlfn.IFS(Q23=1,"Jarum patah",Q23=2,"Bundet bawah",Q23=3,"Bundet atas",Q23=4,"Benang putus",Q23=5,"Sensor lepas",Q23=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U23" s="34" t="str">
+      <c r="U23" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR9</v>
       </c>
@@ -41721,7 +41692,7 @@
       <c r="B24" s="4">
         <v>45911</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="s">
@@ -41741,27 +41712,27 @@
       <c r="I24" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="36">
         <v>8</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="33">
         <v>8</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="32">
         <v>13</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24" s="35">
         <f t="shared" si="1"/>
         <v>3.6111111111111109E-3</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="32">
         <v>2</v>
       </c>
       <c r="R24" t="str" cm="1">
         <f t="array" ref="R24">_xlfn.IFS(Q24=1,"Jarum patah",Q24=2,"Bundet bawah",Q24=3,"Bundet atas",Q24=4,"Benang putus",Q24=5,"Sensor lepas",Q24=6,"Mesin mati")</f>
         <v>Bundet bawah</v>
       </c>
-      <c r="U24" s="34" t="str">
+      <c r="U24" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR8</v>
       </c>
@@ -41770,7 +41741,7 @@
       <c r="B25" s="4">
         <v>45911</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
@@ -41790,27 +41761,27 @@
       <c r="I25" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="36">
         <v>1</v>
       </c>
-      <c r="K25" s="34">
+      <c r="K25" s="33">
         <v>1</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="32">
         <v>71</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="35">
         <f t="shared" si="1"/>
         <v>1.9722222222222221E-2</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="Q25" s="32">
         <v>4</v>
       </c>
       <c r="R25" t="str" cm="1">
         <f t="array" ref="R25">_xlfn.IFS(Q25=1,"Jarum patah",Q25=2,"Bundet bawah",Q25=3,"Bundet atas",Q25=4,"Benang putus",Q25=5,"Sensor lepas",Q25=6,"Mesin mati")</f>
         <v>Benang putus</v>
       </c>
-      <c r="U25" s="34" t="str">
+      <c r="U25" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR1</v>
       </c>
@@ -41819,7 +41790,7 @@
       <c r="B26" s="4">
         <v>45912</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
@@ -41839,27 +41810,27 @@
       <c r="I26" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="36">
         <v>9</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="33">
         <v>9</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="32">
         <v>13</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26" s="35">
         <f t="shared" si="1"/>
         <v>3.6111111111111109E-3</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="Q26" s="32">
         <v>3</v>
       </c>
       <c r="R26" t="str" cm="1">
         <f t="array" ref="R26">_xlfn.IFS(Q26=1,"Jarum patah",Q26=2,"Bundet bawah",Q26=3,"Bundet atas",Q26=4,"Benang putus",Q26=5,"Sensor lepas",Q26=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U26" s="34" t="str">
+      <c r="U26" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR9</v>
       </c>
@@ -41868,7 +41839,7 @@
       <c r="B27" s="4">
         <v>45912</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
@@ -41888,27 +41859,27 @@
       <c r="I27" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27" s="36">
         <v>6</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="33">
         <v>6</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="32">
         <v>132</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27" s="35">
         <f t="shared" si="1"/>
         <v>3.6666666666666667E-2</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="32">
         <v>1</v>
       </c>
       <c r="R27" t="str" cm="1">
         <f t="array" ref="R27">_xlfn.IFS(Q27=1,"Jarum patah",Q27=2,"Bundet bawah",Q27=3,"Bundet atas",Q27=4,"Benang putus",Q27=5,"Sensor lepas",Q27=6,"Mesin mati")</f>
         <v>Jarum patah</v>
       </c>
-      <c r="U27" s="34" t="str">
+      <c r="U27" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR6</v>
       </c>
@@ -41917,7 +41888,7 @@
       <c r="B28" s="4">
         <v>45913</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
@@ -41937,27 +41908,27 @@
       <c r="I28" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="36">
         <v>9</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="33">
         <v>9</v>
       </c>
-      <c r="M28" s="33">
+      <c r="M28" s="32">
         <v>50</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="35">
         <f t="shared" si="1"/>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="Q28" s="32">
         <v>3</v>
       </c>
       <c r="R28" t="str" cm="1">
         <f t="array" ref="R28">_xlfn.IFS(Q28=1,"Jarum patah",Q28=2,"Bundet bawah",Q28=3,"Bundet atas",Q28=4,"Benang putus",Q28=5,"Sensor lepas",Q28=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U28" s="34" t="str">
+      <c r="U28" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR9</v>
       </c>
@@ -41966,7 +41937,7 @@
       <c r="B29" s="4">
         <v>45913</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>3</v>
       </c>
       <c r="D29" t="s">
@@ -41986,27 +41957,27 @@
       <c r="I29" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="36">
         <v>1</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K29" s="33">
         <v>1</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="32">
         <v>147</v>
       </c>
-      <c r="N29" s="36">
+      <c r="N29" s="35">
         <f t="shared" si="1"/>
         <v>4.0833333333333333E-2</v>
       </c>
-      <c r="Q29" s="33">
+      <c r="Q29" s="32">
         <v>6</v>
       </c>
       <c r="R29" t="str" cm="1">
         <f t="array" ref="R29">_xlfn.IFS(Q29=1,"Jarum patah",Q29=2,"Bundet bawah",Q29=3,"Bundet atas",Q29=4,"Benang putus",Q29=5,"Sensor lepas",Q29=6,"Mesin mati")</f>
         <v>Mesin mati</v>
       </c>
-      <c r="U29" s="34" t="str">
+      <c r="U29" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR1</v>
       </c>
@@ -42015,7 +41986,7 @@
       <c r="B30" s="4">
         <v>45913</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
@@ -42035,27 +42006,27 @@
       <c r="I30" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="36">
         <v>8</v>
       </c>
-      <c r="K30" s="34">
+      <c r="K30" s="33">
         <v>8</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="32">
         <v>36</v>
       </c>
-      <c r="N30" s="36">
+      <c r="N30" s="35">
         <f t="shared" si="1"/>
         <v>0.01</v>
       </c>
-      <c r="Q30" s="33">
+      <c r="Q30" s="32">
         <v>2</v>
       </c>
       <c r="R30" t="str" cm="1">
         <f t="array" ref="R30">_xlfn.IFS(Q30=1,"Jarum patah",Q30=2,"Bundet bawah",Q30=3,"Bundet atas",Q30=4,"Benang putus",Q30=5,"Sensor lepas",Q30=6,"Mesin mati")</f>
         <v>Bundet bawah</v>
       </c>
-      <c r="U30" s="34" t="str">
+      <c r="U30" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR8</v>
       </c>
@@ -42064,7 +42035,7 @@
       <c r="B31" s="4">
         <v>45915</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
@@ -42084,27 +42055,27 @@
       <c r="I31" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="36">
         <v>5</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="33">
         <v>5</v>
       </c>
-      <c r="M31" s="33">
+      <c r="M31" s="32">
         <v>19</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31" s="35">
         <f t="shared" si="1"/>
         <v>5.2777777777777779E-3</v>
       </c>
-      <c r="Q31" s="33">
+      <c r="Q31" s="32">
         <v>3</v>
       </c>
       <c r="R31" t="str" cm="1">
         <f t="array" ref="R31">_xlfn.IFS(Q31=1,"Jarum patah",Q31=2,"Bundet bawah",Q31=3,"Bundet atas",Q31=4,"Benang putus",Q31=5,"Sensor lepas",Q31=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U31" s="34" t="str">
+      <c r="U31" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR5</v>
       </c>
@@ -42113,7 +42084,7 @@
       <c r="B32" s="4">
         <v>45916</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>3</v>
       </c>
       <c r="D32" t="s">
@@ -42133,27 +42104,27 @@
       <c r="I32" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="36">
         <v>1</v>
       </c>
-      <c r="K32" s="34">
+      <c r="K32" s="33">
         <v>1</v>
       </c>
-      <c r="M32" s="33">
+      <c r="M32" s="32">
         <v>29</v>
       </c>
-      <c r="N32" s="36">
+      <c r="N32" s="35">
         <f t="shared" si="1"/>
         <v>8.0555555555555554E-3</v>
       </c>
-      <c r="Q32" s="33">
+      <c r="Q32" s="32">
         <v>6</v>
       </c>
       <c r="R32" t="str" cm="1">
         <f t="array" ref="R32">_xlfn.IFS(Q32=1,"Jarum patah",Q32=2,"Bundet bawah",Q32=3,"Bundet atas",Q32=4,"Benang putus",Q32=5,"Sensor lepas",Q32=6,"Mesin mati")</f>
         <v>Mesin mati</v>
       </c>
-      <c r="U32" s="34" t="str">
+      <c r="U32" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR1</v>
       </c>
@@ -42162,7 +42133,7 @@
       <c r="B33" s="4">
         <v>45916</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
@@ -42182,27 +42153,27 @@
       <c r="I33" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="36">
         <v>6</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="33">
         <v>6</v>
       </c>
-      <c r="M33" s="33">
+      <c r="M33" s="32">
         <v>68</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N33" s="35">
         <f t="shared" si="1"/>
         <v>1.8888888888888889E-2</v>
       </c>
-      <c r="Q33" s="33">
+      <c r="Q33" s="32">
         <v>3</v>
       </c>
       <c r="R33" t="str" cm="1">
         <f t="array" ref="R33">_xlfn.IFS(Q33=1,"Jarum patah",Q33=2,"Bundet bawah",Q33=3,"Bundet atas",Q33=4,"Benang putus",Q33=5,"Sensor lepas",Q33=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U33" s="34" t="str">
+      <c r="U33" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR6</v>
       </c>
@@ -42211,7 +42182,7 @@
       <c r="B34" s="4">
         <v>45917</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
@@ -42231,27 +42202,27 @@
       <c r="I34" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="36">
         <v>9</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="33">
         <v>9</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="32">
         <v>102</v>
       </c>
-      <c r="N34" s="36">
+      <c r="N34" s="35">
         <f t="shared" si="1"/>
         <v>2.8333333333333332E-2</v>
       </c>
-      <c r="Q34" s="33">
+      <c r="Q34" s="32">
         <v>3</v>
       </c>
       <c r="R34" t="str" cm="1">
         <f t="array" ref="R34">_xlfn.IFS(Q34=1,"Jarum patah",Q34=2,"Bundet bawah",Q34=3,"Bundet atas",Q34=4,"Benang putus",Q34=5,"Sensor lepas",Q34=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U34" s="34" t="str">
+      <c r="U34" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR9</v>
       </c>
@@ -42260,7 +42231,7 @@
       <c r="B35" s="4">
         <v>45917</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
@@ -42280,27 +42251,27 @@
       <c r="I35" t="s">
         <v>36</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="36">
         <v>8</v>
       </c>
-      <c r="K35" s="34">
+      <c r="K35" s="33">
         <v>8</v>
       </c>
-      <c r="M35" s="33">
+      <c r="M35" s="32">
         <v>47</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="35">
         <f t="shared" si="1"/>
         <v>1.3055555555555556E-2</v>
       </c>
-      <c r="Q35" s="33">
+      <c r="Q35" s="32">
         <v>6</v>
       </c>
       <c r="R35" t="str" cm="1">
         <f t="array" ref="R35">_xlfn.IFS(Q35=1,"Jarum patah",Q35=2,"Bundet bawah",Q35=3,"Bundet atas",Q35=4,"Benang putus",Q35=5,"Sensor lepas",Q35=6,"Mesin mati")</f>
         <v>Mesin mati</v>
       </c>
-      <c r="U35" s="34" t="str">
+      <c r="U35" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR8</v>
       </c>
@@ -42309,7 +42280,7 @@
       <c r="B36" s="4">
         <v>45917</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
@@ -42329,27 +42300,27 @@
       <c r="I36" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="37">
+      <c r="J36" s="36">
         <v>2</v>
       </c>
-      <c r="K36" s="34">
+      <c r="K36" s="33">
         <v>2</v>
       </c>
-      <c r="M36" s="33">
+      <c r="M36" s="32">
         <v>128</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36" s="35">
         <f t="shared" si="1"/>
         <v>3.5555555555555556E-2</v>
       </c>
-      <c r="Q36" s="33">
+      <c r="Q36" s="32">
         <v>6</v>
       </c>
       <c r="R36" t="str" cm="1">
         <f t="array" ref="R36">_xlfn.IFS(Q36=1,"Jarum patah",Q36=2,"Bundet bawah",Q36=3,"Bundet atas",Q36=4,"Benang putus",Q36=5,"Sensor lepas",Q36=6,"Mesin mati")</f>
         <v>Mesin mati</v>
       </c>
-      <c r="U36" s="34" t="str">
+      <c r="U36" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR2</v>
       </c>
@@ -42358,7 +42329,7 @@
       <c r="B37" s="4">
         <v>45917</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
@@ -42378,27 +42349,27 @@
       <c r="I37" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="37">
+      <c r="J37" s="36">
         <v>4</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="33">
         <v>4</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="32">
         <v>86</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="35">
         <f t="shared" si="1"/>
         <v>2.388888888888889E-2</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="32">
         <v>2</v>
       </c>
       <c r="R37" t="str" cm="1">
         <f t="array" ref="R37">_xlfn.IFS(Q37=1,"Jarum patah",Q37=2,"Bundet bawah",Q37=3,"Bundet atas",Q37=4,"Benang putus",Q37=5,"Sensor lepas",Q37=6,"Mesin mati")</f>
         <v>Bundet bawah</v>
       </c>
-      <c r="U37" s="34" t="str">
+      <c r="U37" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR4</v>
       </c>
@@ -42407,7 +42378,7 @@
       <c r="B38" s="4">
         <v>45918</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
@@ -42427,27 +42398,27 @@
       <c r="I38" t="s">
         <v>36</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="36">
         <v>3</v>
       </c>
-      <c r="K38" s="34">
+      <c r="K38" s="33">
         <v>3</v>
       </c>
-      <c r="M38" s="33">
+      <c r="M38" s="32">
         <v>12</v>
       </c>
-      <c r="N38" s="36">
+      <c r="N38" s="35">
         <f t="shared" si="1"/>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="Q38" s="33">
+      <c r="Q38" s="32">
         <v>3</v>
       </c>
       <c r="R38" t="str" cm="1">
         <f t="array" ref="R38">_xlfn.IFS(Q38=1,"Jarum patah",Q38=2,"Bundet bawah",Q38=3,"Bundet atas",Q38=4,"Benang putus",Q38=5,"Sensor lepas",Q38=6,"Mesin mati")</f>
         <v>Bundet atas</v>
       </c>
-      <c r="U38" s="34" t="str">
+      <c r="U38" s="33" t="str">
         <f t="shared" si="2"/>
         <v>BRDR3</v>
       </c>

--- a/Production Monitoring Dashboard.xlsx
+++ b/Production Monitoring Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dwi\BELAJAR EXCEL\Tondi Factory\Scarf-Production-Dashboard-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152A9225-FE4F-4FD7-A6C4-4938D7A3B290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB7001C-B523-4E01-8F69-72924CCDD844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9709CC96-8BCD-447D-A5C8-E8188A5D328F}"/>
   </bookViews>
@@ -2465,6 +2465,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR4 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Productivity (pcs/hour)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2832,6 +2868,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR5 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Productivity (pcs/hour)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3199,6 +3271,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR6 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Productivity (pcs/hour)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3566,6 +3674,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR7 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Productivity (pcs/hour)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3933,6 +4077,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR8 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Productivity (pcs/hour)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4300,6 +4480,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR9 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Productivity (pcs/hour)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4667,6 +4883,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR1  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Running Time (hours)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4915,6 +5167,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5034,6 +5287,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR2 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Running Time (hours)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5282,6 +5571,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5401,6 +5691,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Running Time (hours)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5649,6 +5975,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5768,6 +6095,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR4 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Running Time (hours)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6016,6 +6379,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6608,6 +6972,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR5 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Running Time (hours)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6856,6 +7256,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6975,6 +7376,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR6 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Running Time (hours)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7223,6 +7660,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7342,6 +7780,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR7 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Running Time (hours)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7590,6 +8064,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7709,6 +8184,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR8 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Running Time (hours)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8076,6 +8587,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR9 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Running Time (hours)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8324,6 +8871,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8443,6 +8991,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR1  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Downtime (mins)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8691,6 +9275,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.12000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8742,6 +9327,7 @@
         <c:crossAx val="389537583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8810,6 +9396,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR2 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Downtime (mins)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9058,6 +9680,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.12000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9177,6 +9800,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Downtime (mins)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9425,6 +10084,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.12000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9544,6 +10204,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR4 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Downtime (mins)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9792,6 +10488,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.12000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9911,6 +10608,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR5 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Downtime (mins)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10159,6 +10892,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.12000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10751,6 +11485,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR6 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Downtime (mins)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10999,6 +11769,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.12000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11118,6 +11889,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR7 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Downtime (mins)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11366,6 +12173,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.12000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11485,6 +12293,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR8 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Downtime (mins)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11733,6 +12577,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.12000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11852,6 +12697,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR9 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Downtime (mins)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12100,6 +12981,7 @@
         <c:axId val="389555343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.12000000000000001"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -13409,7 +14291,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Hours</a:t>
+                  <a:t>Hours/day</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -13533,6 +14415,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BRDR1 Productivity (pcs/hour)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13900,6 +14807,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR2 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Productivity (pcs/hour)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14267,6 +15210,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>BRDR3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Productivity (pcs/hour)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -34638,7 +35617,7 @@
   <dimension ref="B1:R21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34727,7 +35706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A2A590-3D9C-41F4-BC8B-65894092682D}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
       <selection activeCell="F15" sqref="F15:F23"/>
     </sheetView>
   </sheetViews>
@@ -36558,8 +37537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02EE0E8-6B15-4D72-9A19-AADE1BB99447}">
   <dimension ref="A1:BI24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AO1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="BG4" sqref="BG4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B23" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="BD50" sqref="BD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Production Monitoring Dashboard.xlsx
+++ b/Production Monitoring Dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dwi\BELAJAR EXCEL\Tondi Factory\Scarf-Production-Dashboard-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB7001C-B523-4E01-8F69-72924CCDD844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D418D-5F87-4AF4-8554-250A0D8FAED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9709CC96-8BCD-447D-A5C8-E8188A5D328F}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="100">
   <si>
     <t>Start</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>Bundet bawah</t>
-  </si>
-  <si>
-    <t>BRDR</t>
   </si>
   <si>
     <t>Machine Identification</t>
@@ -35277,13 +35274,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EEFA8A0E-C6FD-40B1-815F-07B19E0C52FB}" name="Table5" displayName="Table5" ref="B1:G38" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B1:G38" xr:uid="{EEFA8A0E-C6FD-40B1-815F-07B19E0C52FB}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="BRDR1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:G38" xr:uid="{EEFA8A0E-C6FD-40B1-815F-07B19E0C52FB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D5EF1E8F-CDFD-4EBB-8697-9C0D4D81F1D0}" name="Date" dataDxfId="3">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
@@ -35617,7 +35608,7 @@
   <dimension ref="B1:R21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35671,7 +35662,7 @@
     <row r="20" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="4:16" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D21" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>24</v>
@@ -35706,8 +35697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A2A590-3D9C-41F4-BC8B-65894092682D}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F23"/>
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35752,7 +35743,7 @@
         <v>15</v>
       </c>
       <c r="P1" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="46"/>
       <c r="R1" s="46"/>
@@ -35762,7 +35753,7 @@
         <v>15</v>
       </c>
       <c r="W1" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X1" s="46"/>
       <c r="Y1" s="46"/>
@@ -36549,7 +36540,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="I13" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="55"/>
@@ -37189,7 +37180,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37215,10 +37206,10 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -37537,8 +37528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02EE0E8-6B15-4D72-9A19-AADE1BB99447}">
   <dimension ref="A1:BI24"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B23" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="BD50" sqref="BD50"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="BI5" sqref="BI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37596,169 +37587,169 @@
   <sheetData>
     <row r="1" spans="1:61" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="T1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="U1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="W1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="X1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="Y1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="AA1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AB1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AC1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AD1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AE1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="AE1" s="26" t="s">
+      <c r="AF1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="26" t="s">
+      <c r="AG1" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AH1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="26" t="s">
+      <c r="AI1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" s="26" t="s">
+      <c r="AK1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AL1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="AL1" s="26" t="s">
+      <c r="AM1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="AM1" s="26" t="s">
+      <c r="AN1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="26" t="s">
+      <c r="AO1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="AO1" s="26" t="s">
+      <c r="AP1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="AP1" s="26" t="s">
+      <c r="AQ1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="AQ1" s="26" t="s">
+      <c r="AR1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="AR1" s="26" t="s">
+      <c r="AS1" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="AS1" s="26" t="s">
+      <c r="AT1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="AT1" s="26" t="s">
+      <c r="AU1" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="AU1" s="26" t="s">
+      <c r="AV1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="AV1" s="26" t="s">
+      <c r="AW1" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="AW1" s="26" t="s">
+      <c r="AX1" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="AX1" s="26" t="s">
+      <c r="AY1" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="AY1" s="26" t="s">
+      <c r="AZ1" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="26" t="s">
+      <c r="BA1" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="BA1" s="26" t="s">
+      <c r="BB1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="BB1" s="26" t="s">
+      <c r="BC1" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="BC1" s="26" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:61" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -37845,16 +37836,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="F3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="G3" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>41</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>0</v>
@@ -37863,16 +37854,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="L3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="M3" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="M3" s="40" t="s">
-        <v>41</v>
       </c>
       <c r="N3" s="40" t="s">
         <v>0</v>
@@ -37881,16 +37872,16 @@
         <v>1</v>
       </c>
       <c r="P3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="R3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="S3" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>41</v>
       </c>
       <c r="T3" s="40" t="s">
         <v>0</v>
@@ -37899,16 +37890,16 @@
         <v>1</v>
       </c>
       <c r="V3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="40" t="s">
+      <c r="X3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="40" t="s">
+      <c r="Y3" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="Y3" s="40" t="s">
-        <v>41</v>
       </c>
       <c r="Z3" s="40" t="s">
         <v>0</v>
@@ -37917,16 +37908,16 @@
         <v>1</v>
       </c>
       <c r="AB3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="40" t="s">
+      <c r="AD3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="40" t="s">
+      <c r="AE3" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="AE3" s="40" t="s">
-        <v>41</v>
       </c>
       <c r="AF3" s="40" t="s">
         <v>0</v>
@@ -37935,16 +37926,16 @@
         <v>1</v>
       </c>
       <c r="AH3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AI3" s="40" t="s">
+      <c r="AJ3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AJ3" s="40" t="s">
+      <c r="AK3" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="AK3" s="40" t="s">
-        <v>41</v>
       </c>
       <c r="AL3" s="40" t="s">
         <v>0</v>
@@ -37953,16 +37944,16 @@
         <v>1</v>
       </c>
       <c r="AN3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AO3" s="40" t="s">
+      <c r="AP3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AP3" s="40" t="s">
+      <c r="AQ3" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="AQ3" s="40" t="s">
-        <v>41</v>
       </c>
       <c r="AR3" s="40" t="s">
         <v>0</v>
@@ -37971,16 +37962,16 @@
         <v>1</v>
       </c>
       <c r="AT3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AU3" s="40" t="s">
+      <c r="AV3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AV3" s="40" t="s">
+      <c r="AW3" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="AW3" s="40" t="s">
-        <v>41</v>
       </c>
       <c r="AX3" s="40" t="s">
         <v>0</v>
@@ -37989,31 +37980,31 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="BA3" s="40" t="s">
+      <c r="BB3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="BB3" s="40" t="s">
+      <c r="BC3" s="40" t="s">
         <v>40</v>
-      </c>
-      <c r="BC3" s="40" t="s">
-        <v>41</v>
       </c>
       <c r="BE3" s="49" t="s">
         <v>15</v>
       </c>
       <c r="BF3" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BG3" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BH3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI3" s="51" t="s">
         <v>40</v>
-      </c>
-      <c r="BI3" s="51" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.35">
@@ -41293,7 +41284,7 @@
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -41572,7 +41563,7 @@
   <dimension ref="B1:U38"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="I4" sqref="I4:U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41658,7 +41649,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
         <v>45901</v>
       </c>
@@ -41679,36 +41670,15 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="36">
-        <v>2</v>
-      </c>
-      <c r="K4" s="33">
-        <v>2</v>
-      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="33"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="32">
-        <v>126</v>
-      </c>
-      <c r="N4" s="35">
-        <f>M4/3600</f>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="Q4" s="32">
-        <v>3</v>
-      </c>
-      <c r="R4" t="str" cm="1">
-        <f t="array" ref="R4">_xlfn.IFS(Q4=1,"Jarum patah",Q4=2,"Bundet bawah",Q4=3,"Bundet atas",Q4=4,"Benang putus",Q4=5,"Sensor lepas",Q4=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U4" s="33" t="str">
-        <f>_xlfn.CONCAT(I4,J4)</f>
-        <v>BRDR2</v>
-      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="35"/>
+      <c r="Q4" s="32"/>
+      <c r="U4" s="33"/>
     </row>
-    <row r="5" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B5" s="4">
         <v>45902</v>
       </c>
@@ -41722,7 +41692,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F5" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N5</f>
         <v>0.350833333333333</v>
       </c>
       <c r="G5" s="5">
@@ -41730,36 +41699,15 @@
         <v>1.7500000000000016E-2</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="36">
-        <v>4</v>
-      </c>
-      <c r="K5" s="33">
-        <v>4</v>
-      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="32">
-        <v>63</v>
-      </c>
-      <c r="N5" s="35">
-        <f t="shared" ref="N5:N38" si="1">M5/3600</f>
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="Q5" s="32">
-        <v>3</v>
-      </c>
-      <c r="R5" t="str" cm="1">
-        <f t="array" ref="R5">_xlfn.IFS(Q5=1,"Jarum patah",Q5=2,"Bundet bawah",Q5=3,"Bundet atas",Q5=4,"Benang putus",Q5=5,"Sensor lepas",Q5=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U5" s="33" t="str">
-        <f t="shared" ref="U5:U38" si="2">_xlfn.CONCAT(I5,J5)</f>
-        <v>BRDR4</v>
-      </c>
+      <c r="M5" s="32"/>
+      <c r="N5" s="35"/>
+      <c r="Q5" s="32"/>
+      <c r="U5" s="33"/>
     </row>
-    <row r="6" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" s="4">
         <v>45902</v>
       </c>
@@ -41773,7 +41721,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F6" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N6</f>
         <v>0.36305555555555519</v>
       </c>
       <c r="G6" s="5">
@@ -41781,36 +41728,15 @@
         <v>2.9722222222222205E-2</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="36">
-        <v>8</v>
-      </c>
-      <c r="K6" s="33">
-        <v>8</v>
-      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="32">
-        <v>107</v>
-      </c>
-      <c r="N6" s="35">
-        <f t="shared" si="1"/>
-        <v>2.9722222222222223E-2</v>
-      </c>
-      <c r="Q6" s="32">
-        <v>4</v>
-      </c>
-      <c r="R6" t="str" cm="1">
-        <f t="array" ref="R6">_xlfn.IFS(Q6=1,"Jarum patah",Q6=2,"Bundet bawah",Q6=3,"Bundet atas",Q6=4,"Benang putus",Q6=5,"Sensor lepas",Q6=6,"Mesin mati")</f>
-        <v>Benang putus</v>
-      </c>
-      <c r="U6" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR8</v>
-      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="35"/>
+      <c r="Q6" s="32"/>
+      <c r="U6" s="33"/>
     </row>
-    <row r="7" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7" s="4">
         <v>45902</v>
       </c>
@@ -41824,7 +41750,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F7" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N7</f>
         <v>0.36749999999999966</v>
       </c>
       <c r="G7" s="5">
@@ -41832,36 +41757,15 @@
         <v>3.4166666666666679E-2</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="36">
-        <v>8</v>
-      </c>
-      <c r="K7" s="33">
-        <v>8</v>
-      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="33"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="32">
-        <v>123</v>
-      </c>
-      <c r="N7" s="35">
-        <f t="shared" si="1"/>
-        <v>3.4166666666666665E-2</v>
-      </c>
-      <c r="Q7" s="32">
-        <v>6</v>
-      </c>
-      <c r="R7" t="str" cm="1">
-        <f t="array" ref="R7">_xlfn.IFS(Q7=1,"Jarum patah",Q7=2,"Bundet bawah",Q7=3,"Bundet atas",Q7=4,"Benang putus",Q7=5,"Sensor lepas",Q7=6,"Mesin mati")</f>
-        <v>Mesin mati</v>
-      </c>
-      <c r="U7" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR8</v>
-      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="35"/>
+      <c r="Q7" s="32"/>
+      <c r="U7" s="33"/>
     </row>
-    <row r="8" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>45902</v>
       </c>
@@ -41875,7 +41779,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F8" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N8</f>
         <v>0.33555555555555522</v>
       </c>
       <c r="G8" s="5">
@@ -41883,36 +41786,15 @@
         <v>2.2222222222222365E-3</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="36">
-        <v>5</v>
-      </c>
-      <c r="K8" s="33">
-        <v>5</v>
-      </c>
+      <c r="J8" s="36"/>
+      <c r="K8" s="33"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="32">
-        <v>8</v>
-      </c>
-      <c r="N8" s="35">
-        <f t="shared" si="1"/>
-        <v>2.2222222222222222E-3</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>1</v>
-      </c>
-      <c r="R8" t="str" cm="1">
-        <f t="array" ref="R8">_xlfn.IFS(Q8=1,"Jarum patah",Q8=2,"Bundet bawah",Q8=3,"Bundet atas",Q8=4,"Benang putus",Q8=5,"Sensor lepas",Q8=6,"Mesin mati")</f>
-        <v>Jarum patah</v>
-      </c>
-      <c r="U8" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR5</v>
-      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="35"/>
+      <c r="Q8" s="32"/>
+      <c r="U8" s="33"/>
     </row>
-    <row r="9" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>45903</v>
       </c>
@@ -41926,7 +41808,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F9" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N9</f>
         <v>0.38222222222222185</v>
       </c>
       <c r="G9" s="5">
@@ -41934,36 +41815,15 @@
         <v>4.8888888888888871E-2</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="36">
-        <v>8</v>
-      </c>
-      <c r="K9" s="33">
-        <v>8</v>
-      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="32">
-        <v>176</v>
-      </c>
-      <c r="N9" s="35">
-        <f t="shared" si="1"/>
-        <v>4.8888888888888891E-2</v>
-      </c>
-      <c r="Q9" s="32">
-        <v>6</v>
-      </c>
-      <c r="R9" t="str" cm="1">
-        <f t="array" ref="R9">_xlfn.IFS(Q9=1,"Jarum patah",Q9=2,"Bundet bawah",Q9=3,"Bundet atas",Q9=4,"Benang putus",Q9=5,"Sensor lepas",Q9=6,"Mesin mati")</f>
-        <v>Mesin mati</v>
-      </c>
-      <c r="U9" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR8</v>
-      </c>
+      <c r="M9" s="32"/>
+      <c r="N9" s="35"/>
+      <c r="Q9" s="32"/>
+      <c r="U9" s="33"/>
     </row>
-    <row r="10" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>45903</v>
       </c>
@@ -41977,7 +41837,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F10" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N10</f>
         <v>0.37888888888888855</v>
       </c>
       <c r="G10" s="5">
@@ -41985,36 +41844,15 @@
         <v>4.5555555555555571E-2</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="36">
-        <v>9</v>
-      </c>
-      <c r="K10" s="33">
-        <v>9</v>
-      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="32">
-        <v>164</v>
-      </c>
-      <c r="N10" s="35">
-        <f t="shared" si="1"/>
-        <v>4.5555555555555557E-2</v>
-      </c>
-      <c r="Q10" s="32">
-        <v>4</v>
-      </c>
-      <c r="R10" t="str" cm="1">
-        <f t="array" ref="R10">_xlfn.IFS(Q10=1,"Jarum patah",Q10=2,"Bundet bawah",Q10=3,"Bundet atas",Q10=4,"Benang putus",Q10=5,"Sensor lepas",Q10=6,"Mesin mati")</f>
-        <v>Benang putus</v>
-      </c>
-      <c r="U10" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR9</v>
-      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="35"/>
+      <c r="Q10" s="32"/>
+      <c r="U10" s="33"/>
     </row>
-    <row r="11" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>45904</v>
       </c>
@@ -42028,7 +41866,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F11" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N11</f>
         <v>0.36527777777777742</v>
       </c>
       <c r="G11" s="5">
@@ -42036,36 +41873,15 @@
         <v>3.1944444444444442E-2</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="36">
-        <v>8</v>
-      </c>
-      <c r="K11" s="33">
-        <v>8</v>
-      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="33"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="32">
-        <v>115</v>
-      </c>
-      <c r="N11" s="35">
-        <f t="shared" si="1"/>
-        <v>3.1944444444444442E-2</v>
-      </c>
-      <c r="Q11" s="32">
-        <v>3</v>
-      </c>
-      <c r="R11" t="str" cm="1">
-        <f t="array" ref="R11">_xlfn.IFS(Q11=1,"Jarum patah",Q11=2,"Bundet bawah",Q11=3,"Bundet atas",Q11=4,"Benang putus",Q11=5,"Sensor lepas",Q11=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U11" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR8</v>
-      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="35"/>
+      <c r="Q11" s="32"/>
+      <c r="U11" s="33"/>
     </row>
-    <row r="12" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>45905</v>
       </c>
@@ -42079,7 +41895,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F12" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N12</f>
         <v>0.37444444444444408</v>
       </c>
       <c r="G12" s="5">
@@ -42087,36 +41902,15 @@
         <v>4.1111111111111098E-2</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="36">
-        <v>9</v>
-      </c>
-      <c r="K12" s="33">
-        <v>9</v>
-      </c>
+      <c r="J12" s="36"/>
+      <c r="K12" s="33"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="32">
-        <v>148</v>
-      </c>
-      <c r="N12" s="35">
-        <f t="shared" si="1"/>
-        <v>4.1111111111111112E-2</v>
-      </c>
-      <c r="Q12" s="32">
-        <v>6</v>
-      </c>
-      <c r="R12" t="str" cm="1">
-        <f t="array" ref="R12">_xlfn.IFS(Q12=1,"Jarum patah",Q12=2,"Bundet bawah",Q12=3,"Bundet atas",Q12=4,"Benang putus",Q12=5,"Sensor lepas",Q12=6,"Mesin mati")</f>
-        <v>Mesin mati</v>
-      </c>
-      <c r="U12" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR9</v>
-      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="35"/>
+      <c r="Q12" s="32"/>
+      <c r="U12" s="33"/>
     </row>
-    <row r="13" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>45905</v>
       </c>
@@ -42130,7 +41924,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F13" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N13</f>
         <v>0.34888888888888853</v>
       </c>
       <c r="G13" s="5">
@@ -42138,36 +41931,15 @@
         <v>1.5555555555555545E-2</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="36">
-        <v>5</v>
-      </c>
-      <c r="K13" s="33">
-        <v>5</v>
-      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="33"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="32">
-        <v>56</v>
-      </c>
-      <c r="N13" s="35">
-        <f t="shared" si="1"/>
-        <v>1.5555555555555555E-2</v>
-      </c>
-      <c r="Q13" s="32">
-        <v>3</v>
-      </c>
-      <c r="R13" t="str" cm="1">
-        <f t="array" ref="R13">_xlfn.IFS(Q13=1,"Jarum patah",Q13=2,"Bundet bawah",Q13=3,"Bundet atas",Q13=4,"Benang putus",Q13=5,"Sensor lepas",Q13=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U13" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR5</v>
-      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="35"/>
+      <c r="Q13" s="32"/>
+      <c r="U13" s="33"/>
     </row>
-    <row r="14" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>45905</v>
       </c>
@@ -42181,7 +41953,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F14" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N14</f>
         <v>0.35749999999999965</v>
       </c>
       <c r="G14" s="5">
@@ -42189,36 +41960,15 @@
         <v>2.416666666666667E-2</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="36">
-        <v>5</v>
-      </c>
-      <c r="K14" s="33">
-        <v>5</v>
-      </c>
+      <c r="J14" s="36"/>
+      <c r="K14" s="33"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="32">
-        <v>87</v>
-      </c>
-      <c r="N14" s="35">
-        <f t="shared" si="1"/>
-        <v>2.4166666666666666E-2</v>
-      </c>
-      <c r="Q14" s="32">
-        <v>5</v>
-      </c>
-      <c r="R14" t="str" cm="1">
-        <f t="array" ref="R14">_xlfn.IFS(Q14=1,"Jarum patah",Q14=2,"Bundet bawah",Q14=3,"Bundet atas",Q14=4,"Benang putus",Q14=5,"Sensor lepas",Q14=6,"Mesin mati")</f>
-        <v>Sensor lepas</v>
-      </c>
-      <c r="U14" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR5</v>
-      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="35"/>
+      <c r="Q14" s="32"/>
+      <c r="U14" s="33"/>
     </row>
-    <row r="15" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>45906</v>
       </c>
@@ -42232,7 +41982,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F15" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N15</f>
         <v>0.34333333333333299</v>
       </c>
       <c r="G15" s="5">
@@ -42240,36 +41989,15 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="36">
-        <v>4</v>
-      </c>
-      <c r="K15" s="33">
-        <v>4</v>
-      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="33"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="32">
-        <v>36</v>
-      </c>
-      <c r="N15" s="35">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="Q15" s="32">
-        <v>2</v>
-      </c>
-      <c r="R15" t="str" cm="1">
-        <f t="array" ref="R15">_xlfn.IFS(Q15=1,"Jarum patah",Q15=2,"Bundet bawah",Q15=3,"Bundet atas",Q15=4,"Benang putus",Q15=5,"Sensor lepas",Q15=6,"Mesin mati")</f>
-        <v>Bundet bawah</v>
-      </c>
-      <c r="U15" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR4</v>
-      </c>
+      <c r="M15" s="32"/>
+      <c r="N15" s="35"/>
+      <c r="Q15" s="32"/>
+      <c r="U15" s="33"/>
     </row>
-    <row r="16" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>45906</v>
       </c>
@@ -42283,7 +42011,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F16" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N16</f>
         <v>0.36499999999999966</v>
       </c>
       <c r="G16" s="5">
@@ -42291,36 +42018,15 @@
         <v>3.1666666666666676E-2</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="36">
-        <v>7</v>
-      </c>
-      <c r="K16" s="33">
-        <v>7</v>
-      </c>
+      <c r="J16" s="36"/>
+      <c r="K16" s="33"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="32">
-        <v>114</v>
-      </c>
-      <c r="N16" s="35">
-        <f t="shared" si="1"/>
-        <v>3.1666666666666669E-2</v>
-      </c>
-      <c r="Q16" s="32">
-        <v>6</v>
-      </c>
-      <c r="R16" t="str" cm="1">
-        <f t="array" ref="R16">_xlfn.IFS(Q16=1,"Jarum patah",Q16=2,"Bundet bawah",Q16=3,"Bundet atas",Q16=4,"Benang putus",Q16=5,"Sensor lepas",Q16=6,"Mesin mati")</f>
-        <v>Mesin mati</v>
-      </c>
-      <c r="U16" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR7</v>
-      </c>
+      <c r="M16" s="32"/>
+      <c r="N16" s="35"/>
+      <c r="Q16" s="32"/>
+      <c r="U16" s="33"/>
     </row>
-    <row r="17" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>45908</v>
       </c>
@@ -42334,7 +42040,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F17" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N17</f>
         <v>0.350833333333333</v>
       </c>
       <c r="G17" s="5">
@@ -42342,36 +42047,15 @@
         <v>1.7500000000000016E-2</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="36">
-        <v>3</v>
-      </c>
-      <c r="K17" s="33">
-        <v>3</v>
-      </c>
+      <c r="J17" s="36"/>
+      <c r="K17" s="33"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="32">
-        <v>63</v>
-      </c>
-      <c r="N17" s="35">
-        <f t="shared" si="1"/>
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="Q17" s="32">
-        <v>3</v>
-      </c>
-      <c r="R17" t="str" cm="1">
-        <f t="array" ref="R17">_xlfn.IFS(Q17=1,"Jarum patah",Q17=2,"Bundet bawah",Q17=3,"Bundet atas",Q17=4,"Benang putus",Q17=5,"Sensor lepas",Q17=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U17" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR3</v>
-      </c>
+      <c r="M17" s="32"/>
+      <c r="N17" s="35"/>
+      <c r="Q17" s="32"/>
+      <c r="U17" s="33"/>
     </row>
-    <row r="18" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>45909</v>
       </c>
@@ -42385,7 +42069,6 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F18" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N18</f>
         <v>0.36749999999999966</v>
       </c>
       <c r="G18" s="5">
@@ -42393,36 +42076,15 @@
         <v>3.4166666666666679E-2</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="36">
-        <v>5</v>
-      </c>
-      <c r="K18" s="33">
-        <v>5</v>
-      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="32">
-        <v>123</v>
-      </c>
-      <c r="N18" s="35">
-        <f t="shared" si="1"/>
-        <v>3.4166666666666665E-2</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>2</v>
-      </c>
-      <c r="R18" t="str" cm="1">
-        <f t="array" ref="R18">_xlfn.IFS(Q18=1,"Jarum patah",Q18=2,"Bundet bawah",Q18=3,"Bundet atas",Q18=4,"Benang putus",Q18=5,"Sensor lepas",Q18=6,"Mesin mati")</f>
-        <v>Bundet bawah</v>
-      </c>
-      <c r="U18" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR5</v>
-      </c>
+      <c r="M18" s="32"/>
+      <c r="N18" s="35"/>
+      <c r="Q18" s="32"/>
+      <c r="U18" s="33"/>
     </row>
-    <row r="19" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>45909</v>
       </c>
@@ -42436,42 +42098,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F19" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N19</f>
         <v>0.3541666666666663</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="I19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="36">
-        <v>9</v>
-      </c>
-      <c r="K19" s="33">
-        <v>9</v>
-      </c>
-      <c r="M19" s="32">
-        <v>75</v>
-      </c>
-      <c r="N19" s="35">
-        <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="Q19" s="32">
-        <v>4</v>
-      </c>
-      <c r="R19" t="str" cm="1">
-        <f t="array" ref="R19">_xlfn.IFS(Q19=1,"Jarum patah",Q19=2,"Bundet bawah",Q19=3,"Bundet atas",Q19=4,"Benang putus",Q19=5,"Sensor lepas",Q19=6,"Mesin mati")</f>
-        <v>Benang putus</v>
-      </c>
-      <c r="U19" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR9</v>
-      </c>
+      <c r="J19" s="36"/>
+      <c r="K19" s="33"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="35"/>
+      <c r="Q19" s="32"/>
+      <c r="U19" s="33"/>
     </row>
-    <row r="20" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>45909</v>
       </c>
@@ -42485,42 +42125,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F20" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N20</f>
         <v>0.34611111111111076</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>1.2777777777777777E-2</v>
       </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="36">
-        <v>6</v>
-      </c>
-      <c r="K20" s="33">
-        <v>6</v>
-      </c>
-      <c r="M20" s="32">
-        <v>46</v>
-      </c>
-      <c r="N20" s="35">
-        <f t="shared" si="1"/>
-        <v>1.2777777777777779E-2</v>
-      </c>
-      <c r="Q20" s="32">
-        <v>2</v>
-      </c>
-      <c r="R20" t="str" cm="1">
-        <f t="array" ref="R20">_xlfn.IFS(Q20=1,"Jarum patah",Q20=2,"Bundet bawah",Q20=3,"Bundet atas",Q20=4,"Benang putus",Q20=5,"Sensor lepas",Q20=6,"Mesin mati")</f>
-        <v>Bundet bawah</v>
-      </c>
-      <c r="U20" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR6</v>
-      </c>
+      <c r="J20" s="36"/>
+      <c r="K20" s="33"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="35"/>
+      <c r="Q20" s="32"/>
+      <c r="U20" s="33"/>
     </row>
-    <row r="21" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>45909</v>
       </c>
@@ -42534,42 +42152,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F21" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N21</f>
         <v>0.35555555555555518</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>2.2222222222222199E-2</v>
       </c>
-      <c r="I21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="36">
-        <v>7</v>
-      </c>
-      <c r="K21" s="33">
-        <v>7</v>
-      </c>
-      <c r="M21" s="32">
-        <v>80</v>
-      </c>
-      <c r="N21" s="35">
-        <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="Q21" s="32">
-        <v>3</v>
-      </c>
-      <c r="R21" t="str" cm="1">
-        <f t="array" ref="R21">_xlfn.IFS(Q21=1,"Jarum patah",Q21=2,"Bundet bawah",Q21=3,"Bundet atas",Q21=4,"Benang putus",Q21=5,"Sensor lepas",Q21=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U21" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR7</v>
-      </c>
+      <c r="J21" s="36"/>
+      <c r="K21" s="33"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="35"/>
+      <c r="Q21" s="32"/>
+      <c r="U21" s="33"/>
     </row>
-    <row r="22" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>45910</v>
       </c>
@@ -42583,42 +42179,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F22" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N22</f>
         <v>0.36444444444444407</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>3.1111111111111089E-2</v>
       </c>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="36">
-        <v>7</v>
-      </c>
-      <c r="K22" s="33">
-        <v>7</v>
-      </c>
-      <c r="M22" s="32">
-        <v>112</v>
-      </c>
-      <c r="N22" s="35">
-        <f t="shared" si="1"/>
-        <v>3.111111111111111E-2</v>
-      </c>
-      <c r="Q22" s="32">
-        <v>6</v>
-      </c>
-      <c r="R22" t="str" cm="1">
-        <f t="array" ref="R22">_xlfn.IFS(Q22=1,"Jarum patah",Q22=2,"Bundet bawah",Q22=3,"Bundet atas",Q22=4,"Benang putus",Q22=5,"Sensor lepas",Q22=6,"Mesin mati")</f>
-        <v>Mesin mati</v>
-      </c>
-      <c r="U22" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR7</v>
-      </c>
+      <c r="J22" s="36"/>
+      <c r="K22" s="33"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="35"/>
+      <c r="Q22" s="32"/>
+      <c r="U22" s="33"/>
     </row>
-    <row r="23" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>45911</v>
       </c>
@@ -42632,42 +42206,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F23" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N23</f>
         <v>0.3402777777777774</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="I23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="36">
-        <v>9</v>
-      </c>
-      <c r="K23" s="33">
-        <v>9</v>
-      </c>
-      <c r="M23" s="32">
-        <v>25</v>
-      </c>
-      <c r="N23" s="35">
-        <f t="shared" si="1"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-      <c r="Q23" s="32">
-        <v>3</v>
-      </c>
-      <c r="R23" t="str" cm="1">
-        <f t="array" ref="R23">_xlfn.IFS(Q23=1,"Jarum patah",Q23=2,"Bundet bawah",Q23=3,"Bundet atas",Q23=4,"Benang putus",Q23=5,"Sensor lepas",Q23=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U23" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR9</v>
-      </c>
+      <c r="J23" s="36"/>
+      <c r="K23" s="33"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="35"/>
+      <c r="Q23" s="32"/>
+      <c r="U23" s="33"/>
     </row>
-    <row r="24" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>45911</v>
       </c>
@@ -42681,40 +42233,18 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F24" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N24</f>
         <v>0.3369444444444441</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>3.6111111111111205E-3</v>
       </c>
-      <c r="I24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="36">
-        <v>8</v>
-      </c>
-      <c r="K24" s="33">
-        <v>8</v>
-      </c>
-      <c r="M24" s="32">
-        <v>13</v>
-      </c>
-      <c r="N24" s="35">
-        <f t="shared" si="1"/>
-        <v>3.6111111111111109E-3</v>
-      </c>
-      <c r="Q24" s="32">
-        <v>2</v>
-      </c>
-      <c r="R24" t="str" cm="1">
-        <f t="array" ref="R24">_xlfn.IFS(Q24=1,"Jarum patah",Q24=2,"Bundet bawah",Q24=3,"Bundet atas",Q24=4,"Benang putus",Q24=5,"Sensor lepas",Q24=6,"Mesin mati")</f>
-        <v>Bundet bawah</v>
-      </c>
-      <c r="U24" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR8</v>
-      </c>
+      <c r="J24" s="36"/>
+      <c r="K24" s="33"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="35"/>
+      <c r="Q24" s="32"/>
+      <c r="U24" s="33"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
@@ -42730,42 +42260,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F25" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N25</f>
         <v>0.35305555555555518</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
         <v>1.9722222222222197E-2</v>
       </c>
-      <c r="I25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="36">
-        <v>1</v>
-      </c>
-      <c r="K25" s="33">
-        <v>1</v>
-      </c>
-      <c r="M25" s="32">
-        <v>71</v>
-      </c>
-      <c r="N25" s="35">
-        <f t="shared" si="1"/>
-        <v>1.9722222222222221E-2</v>
-      </c>
-      <c r="Q25" s="32">
-        <v>4</v>
-      </c>
-      <c r="R25" t="str" cm="1">
-        <f t="array" ref="R25">_xlfn.IFS(Q25=1,"Jarum patah",Q25=2,"Bundet bawah",Q25=3,"Bundet atas",Q25=4,"Benang putus",Q25=5,"Sensor lepas",Q25=6,"Mesin mati")</f>
-        <v>Benang putus</v>
-      </c>
-      <c r="U25" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR1</v>
-      </c>
+      <c r="J25" s="36"/>
+      <c r="K25" s="33"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="35"/>
+      <c r="Q25" s="32"/>
+      <c r="U25" s="33"/>
     </row>
-    <row r="26" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>45912</v>
       </c>
@@ -42779,42 +42287,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F26" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N26</f>
         <v>0.3369444444444441</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
         <v>3.6111111111111205E-3</v>
       </c>
-      <c r="I26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="36">
-        <v>9</v>
-      </c>
-      <c r="K26" s="33">
-        <v>9</v>
-      </c>
-      <c r="M26" s="32">
-        <v>13</v>
-      </c>
-      <c r="N26" s="35">
-        <f t="shared" si="1"/>
-        <v>3.6111111111111109E-3</v>
-      </c>
-      <c r="Q26" s="32">
-        <v>3</v>
-      </c>
-      <c r="R26" t="str" cm="1">
-        <f t="array" ref="R26">_xlfn.IFS(Q26=1,"Jarum patah",Q26=2,"Bundet bawah",Q26=3,"Bundet atas",Q26=4,"Benang putus",Q26=5,"Sensor lepas",Q26=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U26" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR9</v>
-      </c>
+      <c r="J26" s="36"/>
+      <c r="K26" s="33"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="35"/>
+      <c r="Q26" s="32"/>
+      <c r="U26" s="33"/>
     </row>
-    <row r="27" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <v>45912</v>
       </c>
@@ -42828,42 +42314,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F27" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N27</f>
         <v>0.36999999999999966</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
         <v>3.6666666666666681E-2</v>
       </c>
-      <c r="I27" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="36">
-        <v>6</v>
-      </c>
-      <c r="K27" s="33">
-        <v>6</v>
-      </c>
-      <c r="M27" s="32">
-        <v>132</v>
-      </c>
-      <c r="N27" s="35">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666667E-2</v>
-      </c>
-      <c r="Q27" s="32">
-        <v>1</v>
-      </c>
-      <c r="R27" t="str" cm="1">
-        <f t="array" ref="R27">_xlfn.IFS(Q27=1,"Jarum patah",Q27=2,"Bundet bawah",Q27=3,"Bundet atas",Q27=4,"Benang putus",Q27=5,"Sensor lepas",Q27=6,"Mesin mati")</f>
-        <v>Jarum patah</v>
-      </c>
-      <c r="U27" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR6</v>
-      </c>
+      <c r="J27" s="36"/>
+      <c r="K27" s="33"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="35"/>
+      <c r="Q27" s="32"/>
+      <c r="U27" s="33"/>
     </row>
-    <row r="28" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>45913</v>
       </c>
@@ -42877,40 +42341,18 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F28" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N28</f>
         <v>0.34722222222222188</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="I28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="36">
-        <v>9</v>
-      </c>
-      <c r="K28" s="33">
-        <v>9</v>
-      </c>
-      <c r="M28" s="32">
-        <v>50</v>
-      </c>
-      <c r="N28" s="35">
-        <f t="shared" si="1"/>
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="Q28" s="32">
-        <v>3</v>
-      </c>
-      <c r="R28" t="str" cm="1">
-        <f t="array" ref="R28">_xlfn.IFS(Q28=1,"Jarum patah",Q28=2,"Bundet bawah",Q28=3,"Bundet atas",Q28=4,"Benang putus",Q28=5,"Sensor lepas",Q28=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U28" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR9</v>
-      </c>
+      <c r="J28" s="36"/>
+      <c r="K28" s="33"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="35"/>
+      <c r="Q28" s="32"/>
+      <c r="U28" s="33"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
@@ -42926,42 +42368,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F29" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N29</f>
         <v>0.37416666666666631</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
         <v>4.0833333333333333E-2</v>
       </c>
-      <c r="I29" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="36">
-        <v>1</v>
-      </c>
-      <c r="K29" s="33">
-        <v>1</v>
-      </c>
-      <c r="M29" s="32">
-        <v>147</v>
-      </c>
-      <c r="N29" s="35">
-        <f t="shared" si="1"/>
-        <v>4.0833333333333333E-2</v>
-      </c>
-      <c r="Q29" s="32">
-        <v>6</v>
-      </c>
-      <c r="R29" t="str" cm="1">
-        <f t="array" ref="R29">_xlfn.IFS(Q29=1,"Jarum patah",Q29=2,"Bundet bawah",Q29=3,"Bundet atas",Q29=4,"Benang putus",Q29=5,"Sensor lepas",Q29=6,"Mesin mati")</f>
-        <v>Mesin mati</v>
-      </c>
-      <c r="U29" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR1</v>
-      </c>
+      <c r="J29" s="36"/>
+      <c r="K29" s="33"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="35"/>
+      <c r="Q29" s="32"/>
+      <c r="U29" s="33"/>
     </row>
-    <row r="30" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <v>45913</v>
       </c>
@@ -42975,42 +42395,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F30" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N30</f>
         <v>0.34333333333333299</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="I30" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="36">
-        <v>8</v>
-      </c>
-      <c r="K30" s="33">
-        <v>8</v>
-      </c>
-      <c r="M30" s="32">
-        <v>36</v>
-      </c>
-      <c r="N30" s="35">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="Q30" s="32">
-        <v>2</v>
-      </c>
-      <c r="R30" t="str" cm="1">
-        <f t="array" ref="R30">_xlfn.IFS(Q30=1,"Jarum patah",Q30=2,"Bundet bawah",Q30=3,"Bundet atas",Q30=4,"Benang putus",Q30=5,"Sensor lepas",Q30=6,"Mesin mati")</f>
-        <v>Bundet bawah</v>
-      </c>
-      <c r="U30" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR8</v>
-      </c>
+      <c r="J30" s="36"/>
+      <c r="K30" s="33"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="35"/>
+      <c r="Q30" s="32"/>
+      <c r="U30" s="33"/>
     </row>
-    <row r="31" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <v>45915</v>
       </c>
@@ -43024,40 +42422,18 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F31" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N31</f>
         <v>0.33861111111111075</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
         <v>5.2777777777777701E-3</v>
       </c>
-      <c r="I31" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="36">
-        <v>5</v>
-      </c>
-      <c r="K31" s="33">
-        <v>5</v>
-      </c>
-      <c r="M31" s="32">
-        <v>19</v>
-      </c>
-      <c r="N31" s="35">
-        <f t="shared" si="1"/>
-        <v>5.2777777777777779E-3</v>
-      </c>
-      <c r="Q31" s="32">
-        <v>3</v>
-      </c>
-      <c r="R31" t="str" cm="1">
-        <f t="array" ref="R31">_xlfn.IFS(Q31=1,"Jarum patah",Q31=2,"Bundet bawah",Q31=3,"Bundet atas",Q31=4,"Benang putus",Q31=5,"Sensor lepas",Q31=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U31" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR5</v>
-      </c>
+      <c r="J31" s="36"/>
+      <c r="K31" s="33"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="35"/>
+      <c r="Q31" s="32"/>
+      <c r="U31" s="33"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
@@ -43073,42 +42449,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F32" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N32</f>
         <v>0.34138888888888852</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
         <v>8.055555555555538E-3</v>
       </c>
-      <c r="I32" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="36">
-        <v>1</v>
-      </c>
-      <c r="K32" s="33">
-        <v>1</v>
-      </c>
-      <c r="M32" s="32">
-        <v>29</v>
-      </c>
-      <c r="N32" s="35">
-        <f t="shared" si="1"/>
-        <v>8.0555555555555554E-3</v>
-      </c>
-      <c r="Q32" s="32">
-        <v>6</v>
-      </c>
-      <c r="R32" t="str" cm="1">
-        <f t="array" ref="R32">_xlfn.IFS(Q32=1,"Jarum patah",Q32=2,"Bundet bawah",Q32=3,"Bundet atas",Q32=4,"Benang putus",Q32=5,"Sensor lepas",Q32=6,"Mesin mati")</f>
-        <v>Mesin mati</v>
-      </c>
-      <c r="U32" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR1</v>
-      </c>
+      <c r="J32" s="36"/>
+      <c r="K32" s="33"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="35"/>
+      <c r="Q32" s="32"/>
+      <c r="U32" s="33"/>
     </row>
-    <row r="33" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <v>45916</v>
       </c>
@@ -43122,42 +42476,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F33" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N33</f>
         <v>0.35222222222222188</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="0"/>
         <v>1.8888888888888899E-2</v>
       </c>
-      <c r="I33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="36">
-        <v>6</v>
-      </c>
-      <c r="K33" s="33">
-        <v>6</v>
-      </c>
-      <c r="M33" s="32">
-        <v>68</v>
-      </c>
-      <c r="N33" s="35">
-        <f t="shared" si="1"/>
-        <v>1.8888888888888889E-2</v>
-      </c>
-      <c r="Q33" s="32">
-        <v>3</v>
-      </c>
-      <c r="R33" t="str" cm="1">
-        <f t="array" ref="R33">_xlfn.IFS(Q33=1,"Jarum patah",Q33=2,"Bundet bawah",Q33=3,"Bundet atas",Q33=4,"Benang putus",Q33=5,"Sensor lepas",Q33=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U33" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR6</v>
-      </c>
+      <c r="J33" s="36"/>
+      <c r="K33" s="33"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="35"/>
+      <c r="Q33" s="32"/>
+      <c r="U33" s="33"/>
     </row>
-    <row r="34" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <v>45917</v>
       </c>
@@ -43171,42 +42503,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F34" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N34</f>
         <v>0.3616666666666663</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="0"/>
         <v>2.8333333333333321E-2</v>
       </c>
-      <c r="I34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="36">
-        <v>9</v>
-      </c>
-      <c r="K34" s="33">
-        <v>9</v>
-      </c>
-      <c r="M34" s="32">
-        <v>102</v>
-      </c>
-      <c r="N34" s="35">
-        <f t="shared" si="1"/>
-        <v>2.8333333333333332E-2</v>
-      </c>
-      <c r="Q34" s="32">
-        <v>3</v>
-      </c>
-      <c r="R34" t="str" cm="1">
-        <f t="array" ref="R34">_xlfn.IFS(Q34=1,"Jarum patah",Q34=2,"Bundet bawah",Q34=3,"Bundet atas",Q34=4,"Benang putus",Q34=5,"Sensor lepas",Q34=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U34" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR9</v>
-      </c>
+      <c r="J34" s="36"/>
+      <c r="K34" s="33"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="35"/>
+      <c r="Q34" s="32"/>
+      <c r="U34" s="33"/>
     </row>
-    <row r="35" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B35" s="4">
         <v>45917</v>
       </c>
@@ -43220,42 +42530,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F35" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N35</f>
         <v>0.34638888888888852</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="0"/>
         <v>1.3055555555555542E-2</v>
       </c>
-      <c r="I35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="36">
-        <v>8</v>
-      </c>
-      <c r="K35" s="33">
-        <v>8</v>
-      </c>
-      <c r="M35" s="32">
-        <v>47</v>
-      </c>
-      <c r="N35" s="35">
-        <f t="shared" si="1"/>
-        <v>1.3055555555555556E-2</v>
-      </c>
-      <c r="Q35" s="32">
-        <v>6</v>
-      </c>
-      <c r="R35" t="str" cm="1">
-        <f t="array" ref="R35">_xlfn.IFS(Q35=1,"Jarum patah",Q35=2,"Bundet bawah",Q35=3,"Bundet atas",Q35=4,"Benang putus",Q35=5,"Sensor lepas",Q35=6,"Mesin mati")</f>
-        <v>Mesin mati</v>
-      </c>
-      <c r="U35" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR8</v>
-      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="33"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="35"/>
+      <c r="Q35" s="32"/>
+      <c r="U35" s="33"/>
     </row>
-    <row r="36" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B36" s="4">
         <v>45917</v>
       </c>
@@ -43269,42 +42557,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F36" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N36</f>
         <v>0.36888888888888854</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="0"/>
         <v>3.5555555555555562E-2</v>
       </c>
-      <c r="I36" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="36">
-        <v>2</v>
-      </c>
-      <c r="K36" s="33">
-        <v>2</v>
-      </c>
-      <c r="M36" s="32">
-        <v>128</v>
-      </c>
-      <c r="N36" s="35">
-        <f t="shared" si="1"/>
-        <v>3.5555555555555556E-2</v>
-      </c>
-      <c r="Q36" s="32">
-        <v>6</v>
-      </c>
-      <c r="R36" t="str" cm="1">
-        <f t="array" ref="R36">_xlfn.IFS(Q36=1,"Jarum patah",Q36=2,"Bundet bawah",Q36=3,"Bundet atas",Q36=4,"Benang putus",Q36=5,"Sensor lepas",Q36=6,"Mesin mati")</f>
-        <v>Mesin mati</v>
-      </c>
-      <c r="U36" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR2</v>
-      </c>
+      <c r="J36" s="36"/>
+      <c r="K36" s="33"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="35"/>
+      <c r="Q36" s="32"/>
+      <c r="U36" s="33"/>
     </row>
-    <row r="37" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B37" s="4">
         <v>45917</v>
       </c>
@@ -43318,42 +42584,20 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F37" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N37</f>
         <v>0.35722222222222189</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="0"/>
         <v>2.3888888888888904E-2</v>
       </c>
-      <c r="I37" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="36">
-        <v>4</v>
-      </c>
-      <c r="K37" s="33">
-        <v>4</v>
-      </c>
-      <c r="M37" s="32">
-        <v>86</v>
-      </c>
-      <c r="N37" s="35">
-        <f t="shared" si="1"/>
-        <v>2.388888888888889E-2</v>
-      </c>
-      <c r="Q37" s="32">
-        <v>2</v>
-      </c>
-      <c r="R37" t="str" cm="1">
-        <f t="array" ref="R37">_xlfn.IFS(Q37=1,"Jarum patah",Q37=2,"Bundet bawah",Q37=3,"Bundet atas",Q37=4,"Benang putus",Q37=5,"Sensor lepas",Q37=6,"Mesin mati")</f>
-        <v>Bundet bawah</v>
-      </c>
-      <c r="U37" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR4</v>
-      </c>
+      <c r="J37" s="36"/>
+      <c r="K37" s="33"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="35"/>
+      <c r="Q37" s="32"/>
+      <c r="U37" s="33"/>
     </row>
-    <row r="38" spans="2:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B38" s="4">
         <v>45918</v>
       </c>
@@ -43367,40 +42611,18 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="F38" s="2">
-        <f>Table5[[#This Row],[Downtime Start]]+N38</f>
         <v>0.33666666666666634</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="0"/>
         <v>3.3333333333333548E-3</v>
       </c>
-      <c r="I38" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="36">
-        <v>3</v>
-      </c>
-      <c r="K38" s="33">
-        <v>3</v>
-      </c>
-      <c r="M38" s="32">
-        <v>12</v>
-      </c>
-      <c r="N38" s="35">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="Q38" s="32">
-        <v>3</v>
-      </c>
-      <c r="R38" t="str" cm="1">
-        <f t="array" ref="R38">_xlfn.IFS(Q38=1,"Jarum patah",Q38=2,"Bundet bawah",Q38=3,"Bundet atas",Q38=4,"Benang putus",Q38=5,"Sensor lepas",Q38=6,"Mesin mati")</f>
-        <v>Bundet atas</v>
-      </c>
-      <c r="U38" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v>BRDR3</v>
-      </c>
+      <c r="J38" s="36"/>
+      <c r="K38" s="33"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="35"/>
+      <c r="Q38" s="32"/>
+      <c r="U38" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -43454,7 +42676,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
